--- a/time3.xlsx
+++ b/time3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D512"/>
+  <dimension ref="A1:D374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.91787348297969</v>
+        <v>8.11553711667676</v>
       </c>
       <c r="C2" t="n">
-        <v>3.091632740195413</v>
+        <v>8.140915620626357</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1737592572157229</v>
+        <v>-0.02537850394959662</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.919303332623221</v>
+        <v>8.120764898560322</v>
       </c>
       <c r="C3" t="n">
-        <v>3.071398865624491</v>
+        <v>8.188872949227118</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1520955330012708</v>
+        <v>-0.06810805066679571</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.923420404081864</v>
+        <v>8.131181664670715</v>
       </c>
       <c r="C4" t="n">
-        <v>2.94984506804361</v>
+        <v>8.176534673852897</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.02642466396174559</v>
+        <v>-0.04535300918218255</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.926093440238561</v>
+        <v>8.138300052738247</v>
       </c>
       <c r="C5" t="n">
-        <v>3.125070081250095</v>
+        <v>8.156962998675606</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1989766410115332</v>
+        <v>-0.01866294593735951</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.933137516923652</v>
+        <v>8.158128669251374</v>
       </c>
       <c r="C6" t="n">
-        <v>2.972035543488845</v>
+        <v>8.170884126846314</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0388980265651937</v>
+        <v>-0.01275545759494001</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.971597194421716</v>
+        <v>8.165928305757163</v>
       </c>
       <c r="C7" t="n">
-        <v>2.97523438226727</v>
+        <v>8.261301621958978</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.003637187845554557</v>
+        <v>-0.09537331620181533</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.003224045526578</v>
+        <v>8.166209546410849</v>
       </c>
       <c r="C8" t="n">
-        <v>3.018521514098016</v>
+        <v>8.170452918311403</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.01529746857143799</v>
+        <v>-0.004243371900553683</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.054416865012457</v>
+        <v>8.185315555808703</v>
       </c>
       <c r="C9" t="n">
-        <v>3.093331350308871</v>
+        <v>8.195544263213712</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.03891448529641428</v>
+        <v>-0.01022870740500892</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.059964727467066</v>
+        <v>8.191045936486045</v>
       </c>
       <c r="C10" t="n">
-        <v>3.106334689393568</v>
+        <v>8.257811734992687</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.04636996192650145</v>
+        <v>-0.06676579850664233</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.071874085855427</v>
+        <v>8.211521953796424</v>
       </c>
       <c r="C11" t="n">
-        <v>3.09168960782092</v>
+        <v>8.255653189234833</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.01981552196549252</v>
+        <v>-0.04413123543840847</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.072430362328219</v>
+        <v>8.229263800483885</v>
       </c>
       <c r="C12" t="n">
-        <v>3.05939320137457</v>
+        <v>8.180085429254468</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01303716095364882</v>
+        <v>0.04917837122941648</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.088252719759788</v>
+        <v>8.514294518187926</v>
       </c>
       <c r="C13" t="n">
-        <v>3.121187847529142</v>
+        <v>8.266082617656394</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.03293512776935392</v>
+        <v>0.2482119005315315</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +623,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.556482167982582</v>
+        <v>9.396017803883897</v>
       </c>
       <c r="C14" t="n">
-        <v>4.652790097356875</v>
+        <v>9.516361136469961</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.09630792937429256</v>
+        <v>-0.1203433325860637</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +637,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.60556600775011</v>
+        <v>9.440433218597539</v>
       </c>
       <c r="C15" t="n">
-        <v>4.727943317448402</v>
+        <v>9.542189985562704</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1223773096982921</v>
+        <v>-0.1017567669651651</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +651,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.609839685334843</v>
+        <v>9.440526908765451</v>
       </c>
       <c r="C16" t="n">
-        <v>4.622533848003123</v>
+        <v>9.519909680365398</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.0126941626682795</v>
+        <v>-0.07938277159994733</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +665,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.628227381681251</v>
+        <v>9.447135311384551</v>
       </c>
       <c r="C17" t="n">
-        <v>4.72730341341739</v>
+        <v>9.551070629660055</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.09907603173613921</v>
+        <v>-0.1039353182755036</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +679,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.667458128220871</v>
+        <v>9.463715642496894</v>
       </c>
       <c r="C18" t="n">
-        <v>4.732213244169124</v>
+        <v>9.538362496707581</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.06475511594825267</v>
+        <v>-0.07464685421068751</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.700848670652332</v>
+        <v>9.466848119733157</v>
       </c>
       <c r="C19" t="n">
-        <v>4.711217017066433</v>
+        <v>9.522409192958186</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.01036834641410156</v>
+        <v>-0.05556107322502868</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.729637483526488</v>
+        <v>9.479550762536102</v>
       </c>
       <c r="C20" t="n">
-        <v>4.733231738011531</v>
+        <v>9.534406602475713</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.003594254485043358</v>
+        <v>-0.05485583993961107</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.730372349909507</v>
+        <v>9.49168297567987</v>
       </c>
       <c r="C21" t="n">
-        <v>4.750455014328671</v>
+        <v>9.501567664187895</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.02008266441916451</v>
+        <v>-0.009884688508025263</v>
       </c>
     </row>
     <row r="22">
@@ -735,13 +735,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.943695430245413</v>
+        <v>9.509604354918501</v>
       </c>
       <c r="C22" t="n">
-        <v>4.990500691724229</v>
+        <v>9.516075607526194</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.04680526147881547</v>
+        <v>-0.006471252607692435</v>
       </c>
     </row>
     <row r="23">
@@ -749,13 +749,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.97123521102375</v>
+        <v>9.518536601724488</v>
       </c>
       <c r="C23" t="n">
-        <v>5.139874836717167</v>
+        <v>9.52328914596376</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.1686396256934177</v>
+        <v>-0.004752544239272183</v>
       </c>
     </row>
     <row r="24">
@@ -763,13 +763,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.987727594916108</v>
+        <v>15.63820185664772</v>
       </c>
       <c r="C24" t="n">
-        <v>5.040075027751201</v>
+        <v>15.66260696982573</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.05234743283509324</v>
+        <v>-0.02440511317800897</v>
       </c>
     </row>
     <row r="25">
@@ -777,13 +777,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.999642533642835</v>
+        <v>15.64013449533723</v>
       </c>
       <c r="C25" t="n">
-        <v>5.112609775708213</v>
+        <v>15.70365406385107</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.1129672420653787</v>
+        <v>-0.06351956851383989</v>
       </c>
     </row>
     <row r="26">
@@ -791,13 +791,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>5.015877848585098</v>
+        <v>15.66297973905229</v>
       </c>
       <c r="C26" t="n">
-        <v>5.087725723826728</v>
+        <v>15.74710765051635</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.07184787524163028</v>
+        <v>-0.08412791146406384</v>
       </c>
     </row>
     <row r="27">
@@ -805,13 +805,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>5.028343209614462</v>
+        <v>15.67248925303541</v>
       </c>
       <c r="C27" t="n">
-        <v>5.055343792026461</v>
+        <v>15.68163095817508</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.02700058241199876</v>
+        <v>-0.009141705139668943</v>
       </c>
     </row>
     <row r="28">
@@ -819,13 +819,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>5.037980980961111</v>
+        <v>15.67564429810583</v>
       </c>
       <c r="C28" t="n">
-        <v>5.096482081796433</v>
+        <v>15.73686193607366</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.05850110083532201</v>
+        <v>-0.06121763796783064</v>
       </c>
     </row>
     <row r="29">
@@ -833,13 +833,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>5.050590513163024</v>
+        <v>15.67920152333158</v>
       </c>
       <c r="C29" t="n">
-        <v>5.09232117396133</v>
+        <v>15.69539682719883</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.04173066079830612</v>
+        <v>-0.01619530386724932</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +847,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>5.064068691947905</v>
+        <v>15.70120939355493</v>
       </c>
       <c r="C30" t="n">
-        <v>5.128819409860059</v>
+        <v>15.75436563680379</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.06475071791215381</v>
+        <v>-0.05315624324886059</v>
       </c>
     </row>
     <row r="31">
@@ -861,13 +861,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>5.067362975223108</v>
+        <v>15.7094147256984</v>
       </c>
       <c r="C31" t="n">
-        <v>5.130902889465996</v>
+        <v>15.73490311675211</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.06353991424288807</v>
+        <v>-0.02548839105371137</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>5.106806808733029</v>
+        <v>15.71123756903678</v>
       </c>
       <c r="C32" t="n">
-        <v>5.193609367836435</v>
+        <v>15.76203402459718</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.08680255910340673</v>
+        <v>-0.05079645556039658</v>
       </c>
     </row>
     <row r="33">
@@ -889,13 +889,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>5.107146776863639</v>
+        <v>15.71270320298209</v>
       </c>
       <c r="C33" t="n">
-        <v>5.197103125418763</v>
+        <v>15.6918547921579</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.08995634855512336</v>
+        <v>0.02084841082418798</v>
       </c>
     </row>
     <row r="34">
@@ -903,13 +903,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>5.159338213863498</v>
+        <v>15.7416159487928</v>
       </c>
       <c r="C34" t="n">
-        <v>5.187505052419159</v>
+        <v>15.77060816465551</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.02816683855566104</v>
+        <v>-0.02899221586270961</v>
       </c>
     </row>
     <row r="35">
@@ -917,13 +917,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>5.194072937689971</v>
+        <v>15.74736211726748</v>
       </c>
       <c r="C35" t="n">
-        <v>5.288272947303511</v>
+        <v>15.74779056679543</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.09420000961354003</v>
+        <v>-0.0004284495279538447</v>
       </c>
     </row>
     <row r="36">
@@ -931,13 +931,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>5.203949977904109</v>
+        <v>15.74811735214946</v>
       </c>
       <c r="C36" t="n">
-        <v>5.290986269971601</v>
+        <v>15.65778919567112</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.0870362920674923</v>
+        <v>0.09032815647834092</v>
       </c>
     </row>
     <row r="37">
@@ -945,13 +945,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>5.210026929601667</v>
+        <v>15.8258260468104</v>
       </c>
       <c r="C37" t="n">
-        <v>5.31213454003073</v>
+        <v>15.72072574103583</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.102107610429063</v>
+        <v>0.1051003057745703</v>
       </c>
     </row>
     <row r="38">
@@ -959,13 +959,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>5.215640664112658</v>
+        <v>15.90125926188028</v>
       </c>
       <c r="C38" t="n">
-        <v>5.319246744459456</v>
+        <v>16.06153445121023</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.1036060803467977</v>
+        <v>-0.1602751893299512</v>
       </c>
     </row>
     <row r="39">
@@ -973,13 +973,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>5.238824197198817</v>
+        <v>15.92844614592447</v>
       </c>
       <c r="C39" t="n">
-        <v>5.254007724624683</v>
+        <v>16.04512385113448</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.01518352742586515</v>
+        <v>-0.1166777052100088</v>
       </c>
     </row>
     <row r="40">
@@ -987,13 +987,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>5.242323218369867</v>
+        <v>15.93631331946398</v>
       </c>
       <c r="C40" t="n">
-        <v>5.404712547806492</v>
+        <v>15.95194157479932</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.1623893294366248</v>
+        <v>-0.01562825533534173</v>
       </c>
     </row>
     <row r="41">
@@ -1001,13 +1001,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>5.259971536928582</v>
+        <v>15.97519774768478</v>
       </c>
       <c r="C41" t="n">
-        <v>5.318514610524764</v>
+        <v>16.06846401987975</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.05854307359618183</v>
+        <v>-0.09326627219496864</v>
       </c>
     </row>
     <row r="42">
@@ -1015,13 +1015,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>5.261914229581965</v>
+        <v>15.97619185492088</v>
       </c>
       <c r="C42" t="n">
-        <v>5.322226211156604</v>
+        <v>16.05158670960303</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.06031198157463891</v>
+        <v>-0.07539485468214657</v>
       </c>
     </row>
     <row r="43">
@@ -1029,13 +1029,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>5.279451356954629</v>
+        <v>15.98656663268388</v>
       </c>
       <c r="C43" t="n">
-        <v>5.314514078685569</v>
+        <v>16.00894453853694</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.03506272173093983</v>
+        <v>-0.02237790585306421</v>
       </c>
     </row>
     <row r="44">
@@ -1043,13 +1043,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>5.308963887899068</v>
+        <v>16.01008276824278</v>
       </c>
       <c r="C44" t="n">
-        <v>5.381583149115484</v>
+        <v>16.01556818125189</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.07261926121641515</v>
+        <v>-0.005485413009107987</v>
       </c>
     </row>
     <row r="45">
@@ -1057,13 +1057,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>5.354680536889227</v>
+        <v>16.0139553872358</v>
       </c>
       <c r="C45" t="n">
-        <v>5.324326015200807</v>
+        <v>16.06449915404566</v>
       </c>
       <c r="D45" t="n">
-        <v>0.03035452168841957</v>
+        <v>-0.05054376680985584</v>
       </c>
     </row>
     <row r="46">
@@ -1071,13 +1071,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>5.469116027348094</v>
+        <v>16.01599747961673</v>
       </c>
       <c r="C46" t="n">
-        <v>5.358052973628427</v>
+        <v>16.05291471983941</v>
       </c>
       <c r="D46" t="n">
-        <v>0.1110630537196675</v>
+        <v>-0.03691724022268161</v>
       </c>
     </row>
     <row r="47">
@@ -1085,13 +1085,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>6.925190931930923</v>
+        <v>16.02153984764107</v>
       </c>
       <c r="C47" t="n">
-        <v>7.063913923685341</v>
+        <v>16.02238352753247</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.1387229917544177</v>
+        <v>-0.0008436798913962207</v>
       </c>
     </row>
     <row r="48">
@@ -1099,13 +1099,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>6.92812675577999</v>
+        <v>16.02419856657639</v>
       </c>
       <c r="C48" t="n">
-        <v>7.087584073888752</v>
+        <v>16.03153099982757</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.1594573181087613</v>
+        <v>-0.007332433251178827</v>
       </c>
     </row>
     <row r="49">
@@ -1113,13 +1113,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>6.944517143231867</v>
+        <v>16.04015616940114</v>
       </c>
       <c r="C49" t="n">
-        <v>6.960836356595548</v>
+        <v>16.05666295645418</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.01631921336368158</v>
+        <v>-0.01650678705303577</v>
       </c>
     </row>
     <row r="50">
@@ -1127,13 +1127,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>7.03501281434886</v>
+        <v>16.05827092215349</v>
       </c>
       <c r="C50" t="n">
-        <v>7.086197420591299</v>
+        <v>16.06146649997945</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.05118460624243948</v>
+        <v>-0.003195577825955809</v>
       </c>
     </row>
     <row r="51">
@@ -1141,13 +1141,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>7.054029537760867</v>
+        <v>16.06409444068409</v>
       </c>
       <c r="C51" t="n">
-        <v>7.074356436135091</v>
+        <v>16.06724678734997</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.02032689837422463</v>
+        <v>-0.003152346665885375</v>
       </c>
     </row>
     <row r="52">
@@ -1155,13 +1155,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>7.113216700043326</v>
+        <v>19.65429263591713</v>
       </c>
       <c r="C52" t="n">
-        <v>7.123673998209866</v>
+        <v>19.70087253130912</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01045729816654006</v>
+        <v>-0.04657989539198581</v>
       </c>
     </row>
     <row r="53">
@@ -1169,13 +1169,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>10.98017062753861</v>
+        <v>19.67807446466771</v>
       </c>
       <c r="C53" t="n">
-        <v>11.155034224698</v>
+        <v>19.78427404014044</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.1748635971593995</v>
+        <v>-0.1061995754727292</v>
       </c>
     </row>
     <row r="54">
@@ -1183,13 +1183,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>11.0128717041711</v>
+        <v>19.68037879770818</v>
       </c>
       <c r="C54" t="n">
-        <v>11.02889992342658</v>
+        <v>19.73072887861302</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01602821925547815</v>
+        <v>-0.05035008090484183</v>
       </c>
     </row>
     <row r="55">
@@ -1197,13 +1197,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>11.03116426618437</v>
+        <v>19.68406521835032</v>
       </c>
       <c r="C55" t="n">
-        <v>11.07522879718389</v>
+        <v>19.75578091193039</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.0440645309995169</v>
+        <v>-0.07171569358007446</v>
       </c>
     </row>
     <row r="56">
@@ -1211,13 +1211,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>11.0458890573747</v>
+        <v>19.71798945447891</v>
       </c>
       <c r="C56" t="n">
-        <v>11.171657153754</v>
+        <v>19.75758571749048</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.1257680963792911</v>
+        <v>-0.0395962630115676</v>
       </c>
     </row>
     <row r="57">
@@ -1225,13 +1225,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>11.0497998056901</v>
+        <v>19.75520056307449</v>
       </c>
       <c r="C57" t="n">
-        <v>11.13204541426218</v>
+        <v>19.77448115156059</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.08224560857207841</v>
+        <v>-0.01928058848610448</v>
       </c>
     </row>
     <row r="58">
@@ -1239,13 +1239,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>11.0617874729405</v>
+        <v>19.76366622888248</v>
       </c>
       <c r="C58" t="n">
-        <v>11.09518475855911</v>
+        <v>19.77008445978372</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.03339728561861044</v>
+        <v>-0.006418230901246602</v>
       </c>
     </row>
     <row r="59">
@@ -1253,13 +1253,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>11.06958366365457</v>
+        <v>19.76894731370898</v>
       </c>
       <c r="C59" t="n">
-        <v>11.08845549978139</v>
+        <v>19.77517549807645</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.01887183612681653</v>
+        <v>-0.006228184367472522</v>
       </c>
     </row>
     <row r="60">
@@ -1267,13 +1267,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>11.07199896032089</v>
+        <v>19.77329306071005</v>
       </c>
       <c r="C60" t="n">
-        <v>11.17132995552581</v>
+        <v>19.78337300872122</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.09933099520492306</v>
+        <v>-0.01007994801117462</v>
       </c>
     </row>
     <row r="61">
@@ -1281,13 +1281,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>11.09171239425338</v>
+        <v>23.79914476088998</v>
       </c>
       <c r="C61" t="n">
-        <v>11.12575992914998</v>
+        <v>23.84662368978048</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.03404753489659917</v>
+        <v>-0.0474789288904951</v>
       </c>
     </row>
     <row r="62">
@@ -1295,13 +1295,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>11.10245951439066</v>
+        <v>23.80926322497832</v>
       </c>
       <c r="C62" t="n">
-        <v>11.11717587951968</v>
+        <v>23.81857582135618</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.01471636512901142</v>
+        <v>-0.009312596377856863</v>
       </c>
     </row>
     <row r="63">
@@ -1309,13 +1309,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>11.11714630603817</v>
+        <v>23.81719552684861</v>
       </c>
       <c r="C63" t="n">
-        <v>11.13768473802807</v>
+        <v>23.85576584554481</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.02053843198990535</v>
+        <v>-0.03857031869619476</v>
       </c>
     </row>
     <row r="64">
@@ -1323,13 +1323,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>11.14988425934404</v>
+        <v>23.84165626367767</v>
       </c>
       <c r="C64" t="n">
-        <v>11.16679051850999</v>
+        <v>23.91102291609944</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.01690625916595323</v>
+        <v>-0.06936665242177043</v>
       </c>
     </row>
     <row r="65">
@@ -1337,13 +1337,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>11.15809942218598</v>
+        <v>23.84190300906377</v>
       </c>
       <c r="C65" t="n">
-        <v>11.16982423920344</v>
+        <v>23.8989176746466</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.01172481701746086</v>
+        <v>-0.0570146655828303</v>
       </c>
     </row>
     <row r="66">
@@ -1351,13 +1351,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>11.34496320855881</v>
+        <v>23.85458100214575</v>
       </c>
       <c r="C66" t="n">
-        <v>11.53232424742475</v>
+        <v>23.91861135970921</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.187361038865939</v>
+        <v>-0.06403035756346043</v>
       </c>
     </row>
     <row r="67">
@@ -1365,13 +1365,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>11.35245301203999</v>
+        <v>23.85495006852594</v>
       </c>
       <c r="C67" t="n">
-        <v>11.48565070510848</v>
+        <v>23.8592770885232</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.1331976930684924</v>
+        <v>-0.00432701999725893</v>
       </c>
     </row>
     <row r="68">
@@ -1379,13 +1379,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>11.3616853718963</v>
+        <v>23.86176143417768</v>
       </c>
       <c r="C68" t="n">
-        <v>11.54453440216106</v>
+        <v>23.90657523490335</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.1828490302647587</v>
+        <v>-0.04481380072566665</v>
       </c>
     </row>
     <row r="69">
@@ -1393,13 +1393,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>11.36595173163217</v>
+        <v>23.86282680954758</v>
       </c>
       <c r="C69" t="n">
-        <v>11.37356753890714</v>
+        <v>23.86519224893456</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.007615807274971687</v>
+        <v>-0.002365439386981194</v>
       </c>
     </row>
     <row r="70">
@@ -1407,13 +1407,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>11.37148851516677</v>
+        <v>23.86333677322963</v>
       </c>
       <c r="C70" t="n">
-        <v>11.46270326746276</v>
+        <v>23.8754321038838</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.09121475229599341</v>
+        <v>-0.01209533065416579</v>
       </c>
     </row>
     <row r="71">
@@ -1421,13 +1421,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>11.3753722285635</v>
+        <v>23.86376183201165</v>
       </c>
       <c r="C71" t="n">
-        <v>11.5670972733282</v>
+        <v>23.90401774210709</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.1917250447647003</v>
+        <v>-0.04025591009544272</v>
       </c>
     </row>
     <row r="72">
@@ -1435,13 +1435,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>11.38732214548445</v>
+        <v>23.86600957893421</v>
       </c>
       <c r="C72" t="n">
-        <v>11.5685113129246</v>
+        <v>23.9028725940763</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.1811891674401505</v>
+        <v>-0.03686301514208878</v>
       </c>
     </row>
     <row r="73">
@@ -1449,13 +1449,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>11.39911182997556</v>
+        <v>23.87664518743228</v>
       </c>
       <c r="C73" t="n">
-        <v>11.46539415056599</v>
+        <v>23.88743685556495</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.06628232059042816</v>
+        <v>-0.01079166813266852</v>
       </c>
     </row>
     <row r="74">
@@ -1463,13 +1463,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>11.43203633565689</v>
+        <v>23.89901967258102</v>
       </c>
       <c r="C74" t="n">
-        <v>11.50633274643339</v>
+        <v>23.90086703680622</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.07429641077649762</v>
+        <v>-0.001847364225199044</v>
       </c>
     </row>
     <row r="75">
@@ -1477,13 +1477,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>11.44837683915842</v>
+        <v>23.90862960193812</v>
       </c>
       <c r="C75" t="n">
-        <v>11.48382907473652</v>
+        <v>23.91959999574019</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.03545223557809152</v>
+        <v>-0.01097039380206155</v>
       </c>
     </row>
     <row r="76">
@@ -1491,13 +1491,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>11.52229723076782</v>
+        <v>24.98385699236521</v>
       </c>
       <c r="C76" t="n">
-        <v>11.54022302836783</v>
+        <v>25.06869668701487</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.01792579760000912</v>
+        <v>-0.08483969464966279</v>
       </c>
     </row>
     <row r="77">
@@ -1505,13 +1505,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>11.5228032901559</v>
+        <v>25.00508385743321</v>
       </c>
       <c r="C77" t="n">
-        <v>11.55288410402593</v>
+        <v>25.05624298953764</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.03008081387002903</v>
+        <v>-0.05115913210443424</v>
       </c>
     </row>
     <row r="78">
@@ -1519,13 +1519,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>11.53895931078926</v>
+        <v>25.00930588875123</v>
       </c>
       <c r="C78" t="n">
-        <v>11.56599236140771</v>
+        <v>25.07696128690995</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.02703305061844397</v>
+        <v>-0.06765539815871335</v>
       </c>
     </row>
     <row r="79">
@@ -1533,13 +1533,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>11.66458453157427</v>
+        <v>25.03743141546471</v>
       </c>
       <c r="C79" t="n">
-        <v>11.16740588682327</v>
+        <v>25.08244295770876</v>
       </c>
       <c r="D79" t="n">
-        <v>0.4971786447510009</v>
+        <v>-0.04501154224405823</v>
       </c>
     </row>
     <row r="80">
@@ -1547,13 +1547,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>12.46414675899503</v>
+        <v>25.0779375615787</v>
       </c>
       <c r="C80" t="n">
-        <v>12.55749001792273</v>
+        <v>25.09084192757262</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.09334325892769968</v>
+        <v>-0.01290436599391498</v>
       </c>
     </row>
     <row r="81">
@@ -1561,13 +1561,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>12.47677451786982</v>
+        <v>29.25475426329459</v>
       </c>
       <c r="C81" t="n">
-        <v>12.66842131406572</v>
+        <v>29.32691440975709</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.1916467961959025</v>
+        <v>-0.07216014646249747</v>
       </c>
     </row>
     <row r="82">
@@ -1575,13 +1575,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>12.49252357596446</v>
+        <v>29.25528477744971</v>
       </c>
       <c r="C82" t="n">
-        <v>12.65335239075489</v>
+        <v>29.31269863296889</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.1608288147904311</v>
+        <v>-0.05741385551917944</v>
       </c>
     </row>
     <row r="83">
@@ -1589,13 +1589,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>12.49442986981236</v>
+        <v>29.26345620690322</v>
       </c>
       <c r="C83" t="n">
-        <v>12.53596385943644</v>
+        <v>29.37841310707566</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.04153398962408339</v>
+        <v>-0.1149569001724409</v>
       </c>
     </row>
     <row r="84">
@@ -1603,13 +1603,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>12.52412485226013</v>
+        <v>29.26917891349184</v>
       </c>
       <c r="C84" t="n">
-        <v>12.6359500648529</v>
+        <v>29.36967106918554</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.1118252125927697</v>
+        <v>-0.1004921556937042</v>
       </c>
     </row>
     <row r="85">
@@ -1617,13 +1617,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>12.52592586016632</v>
+        <v>29.27788790853359</v>
       </c>
       <c r="C85" t="n">
-        <v>12.54076004529789</v>
+        <v>29.4132617892217</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.01483418513157098</v>
+        <v>-0.135373880688114</v>
       </c>
     </row>
     <row r="86">
@@ -1631,13 +1631,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>12.55412883070331</v>
+        <v>29.34042549587091</v>
       </c>
       <c r="C86" t="n">
-        <v>12.65169168832501</v>
+        <v>29.34730370708048</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.09756285762170336</v>
+        <v>-0.006878211209578211</v>
       </c>
     </row>
     <row r="87">
@@ -1645,13 +1645,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>12.60620501714144</v>
+        <v>30.02247956748123</v>
       </c>
       <c r="C87" t="n">
-        <v>12.63744069376895</v>
+        <v>30.15990033100624</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.03123567662750304</v>
+        <v>-0.1374207635250073</v>
       </c>
     </row>
     <row r="88">
@@ -1659,13 +1659,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>14.62777319081026</v>
+        <v>30.04733127833216</v>
       </c>
       <c r="C88" t="n">
-        <v>14.65419152461116</v>
+        <v>30.05105311590206</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.02641833380090119</v>
+        <v>-0.003721837569894859</v>
       </c>
     </row>
     <row r="89">
@@ -1673,13 +1673,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>14.69695907254886</v>
+        <v>30.06758303421456</v>
       </c>
       <c r="C89" t="n">
-        <v>14.71773428498344</v>
+        <v>30.15597296866209</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.0207752124345717</v>
+        <v>-0.08838993444753029</v>
       </c>
     </row>
     <row r="90">
@@ -1687,13 +1687,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>14.73616084670587</v>
+        <v>30.08067131989797</v>
       </c>
       <c r="C90" t="n">
-        <v>14.83023453707605</v>
+        <v>30.18248888385394</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.09407369037018398</v>
+        <v>-0.1018175639559757</v>
       </c>
     </row>
     <row r="91">
@@ -1701,13 +1701,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>14.75238604356629</v>
+        <v>30.144770324111</v>
       </c>
       <c r="C91" t="n">
-        <v>14.84220573416115</v>
+        <v>30.16141128313859</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.08981969059486339</v>
+        <v>-0.01664095902759399</v>
       </c>
     </row>
     <row r="92">
@@ -1715,13 +1715,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>14.76312832870976</v>
+        <v>30.14702191626527</v>
       </c>
       <c r="C92" t="n">
-        <v>14.77028559818485</v>
+        <v>30.16352708939751</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.007157269475088768</v>
+        <v>-0.01650517313224142</v>
       </c>
     </row>
     <row r="93">
@@ -1729,13 +1729,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>14.76542694849051</v>
+        <v>30.99380751819814</v>
       </c>
       <c r="C93" t="n">
-        <v>14.84273131852166</v>
+        <v>31.03354386467544</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.07730437003114865</v>
+        <v>-0.03973634647729796</v>
       </c>
     </row>
     <row r="94">
@@ -1743,13 +1743,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>14.78997079871797</v>
+        <v>31.00555648874905</v>
       </c>
       <c r="C94" t="n">
-        <v>14.80113305387629</v>
+        <v>31.02100664785278</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.01116225515832348</v>
+        <v>-0.01545015910372527</v>
       </c>
     </row>
     <row r="95">
@@ -1757,13 +1757,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>14.80762205823973</v>
+        <v>31.00859642717523</v>
       </c>
       <c r="C95" t="n">
-        <v>14.8456585380336</v>
+        <v>31.08618261007149</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.03803647979386326</v>
+        <v>-0.07758618289625474</v>
       </c>
     </row>
     <row r="96">
@@ -1771,13 +1771,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>18.4883767734786</v>
+        <v>31.01181605280997</v>
       </c>
       <c r="C96" t="n">
-        <v>18.63767885453527</v>
+        <v>31.02474319382619</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.1493020810566783</v>
+        <v>-0.01292714101621684</v>
       </c>
     </row>
     <row r="97">
@@ -1785,13 +1785,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>18.52771011837402</v>
+        <v>31.02304977495041</v>
       </c>
       <c r="C97" t="n">
-        <v>18.68709401396241</v>
+        <v>31.11495834628573</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.159383895588384</v>
+        <v>-0.09190857133532404</v>
       </c>
     </row>
     <row r="98">
@@ -1799,13 +1799,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>18.59513559036544</v>
+        <v>31.04484719369165</v>
       </c>
       <c r="C98" t="n">
-        <v>18.67344256903401</v>
+        <v>31.07007597389558</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.07830697866856795</v>
+        <v>-0.02522878020392838</v>
       </c>
     </row>
     <row r="99">
@@ -1813,13 +1813,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>18.59745235231884</v>
+        <v>31.04742202814552</v>
       </c>
       <c r="C99" t="n">
-        <v>18.60287276136775</v>
+        <v>31.07386905593095</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.005420409048909391</v>
+        <v>-0.02644702778543362</v>
       </c>
     </row>
     <row r="100">
@@ -1827,13 +1827,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>18.62451763605042</v>
+        <v>31.04843352540203</v>
       </c>
       <c r="C100" t="n">
-        <v>18.65334471402963</v>
+        <v>31.06774701641643</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.02882707797920858</v>
+        <v>-0.01931349101439395</v>
       </c>
     </row>
     <row r="101">
@@ -1841,13 +1841,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>19.5851502592606</v>
+        <v>31.06055609538853</v>
       </c>
       <c r="C101" t="n">
-        <v>19.80208468294241</v>
+        <v>31.12237688584966</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.2169344236818098</v>
+        <v>-0.06182079046113387</v>
       </c>
     </row>
     <row r="102">
@@ -1855,13 +1855,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>19.59863124378335</v>
+        <v>31.07939740354959</v>
       </c>
       <c r="C102" t="n">
-        <v>19.76473300719169</v>
+        <v>31.11883262266765</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.1661017634083457</v>
+        <v>-0.03943521911806513</v>
       </c>
     </row>
     <row r="103">
@@ -1869,13 +1869,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>19.62208882867442</v>
+        <v>31.09300360300102</v>
       </c>
       <c r="C103" t="n">
-        <v>19.65695588775261</v>
+        <v>31.11416395837485</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.03486705907818788</v>
+        <v>-0.02116035537382999</v>
       </c>
     </row>
     <row r="104">
@@ -1883,13 +1883,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>19.63379979618021</v>
+        <v>31.11755282001108</v>
       </c>
       <c r="C104" t="n">
-        <v>19.66881854573923</v>
+        <v>31.11894863468373</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.03501874955902551</v>
+        <v>-0.001395814672644491</v>
       </c>
     </row>
     <row r="105">
@@ -1897,13 +1897,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>19.64319032071776</v>
+        <v>31.13628047117407</v>
       </c>
       <c r="C105" t="n">
-        <v>19.72893365381519</v>
+        <v>31.15158487751212</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.08574333309743309</v>
+        <v>-0.01530440633805341</v>
       </c>
     </row>
     <row r="106">
@@ -1911,13 +1911,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>19.69353199173552</v>
+        <v>31.22409580272959</v>
       </c>
       <c r="C106" t="n">
-        <v>19.76442427373721</v>
+        <v>31.12381520801866</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.07089228200169373</v>
+        <v>0.1002805947109238</v>
       </c>
     </row>
     <row r="107">
@@ -1925,13 +1925,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>19.71699573195435</v>
+        <v>33.31764862210587</v>
       </c>
       <c r="C107" t="n">
-        <v>19.76701063237548</v>
+        <v>33.45002637013234</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.05001490042112877</v>
+        <v>-0.132377748026471</v>
       </c>
     </row>
     <row r="108">
@@ -1939,13 +1939,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>19.73669434898817</v>
+        <v>33.32302791391712</v>
       </c>
       <c r="C108" t="n">
-        <v>19.78382192986221</v>
+        <v>33.32418593436594</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.04712758087404723</v>
+        <v>-0.001158020448826846</v>
       </c>
     </row>
     <row r="109">
@@ -1953,13 +1953,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>19.75605682138045</v>
+        <v>33.32400940783862</v>
       </c>
       <c r="C109" t="n">
-        <v>19.80432177250185</v>
+        <v>33.3731906979577</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.04826495112139639</v>
+        <v>-0.0491812901190869</v>
       </c>
     </row>
     <row r="110">
@@ -1967,13 +1967,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>20.17638408934761</v>
+        <v>33.32472331822527</v>
       </c>
       <c r="C110" t="n">
-        <v>20.25795218370683</v>
+        <v>33.3496668849932</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.0815680943592163</v>
+        <v>-0.02494356676792364</v>
       </c>
     </row>
     <row r="111">
@@ -1981,13 +1981,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>20.1775993476774</v>
+        <v>33.33350055800899</v>
       </c>
       <c r="C111" t="n">
-        <v>20.2129930083068</v>
+        <v>33.42976851938499</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.03539366062939564</v>
+        <v>-0.09626796137600735</v>
       </c>
     </row>
     <row r="112">
@@ -1995,13 +1995,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>20.18731534892891</v>
+        <v>33.34439686489965</v>
       </c>
       <c r="C112" t="n">
-        <v>20.28660576891387</v>
+        <v>33.39708561365394</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.09929041998496757</v>
+        <v>-0.05268874875428509</v>
       </c>
     </row>
     <row r="113">
@@ -2009,13 +2009,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>20.20939599888083</v>
+        <v>33.37456298020494</v>
       </c>
       <c r="C113" t="n">
-        <v>20.26952497915013</v>
+        <v>33.40844031160805</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.06012898026930458</v>
+        <v>-0.03387733140311155</v>
       </c>
     </row>
     <row r="114">
@@ -2023,13 +2023,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>20.21767238300353</v>
+        <v>33.40487295259856</v>
       </c>
       <c r="C114" t="n">
-        <v>20.3673293359404</v>
+        <v>33.44636222408348</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.1496569529368728</v>
+        <v>-0.04148927148492021</v>
       </c>
     </row>
     <row r="115">
@@ -2037,13 +2037,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>20.21798137975975</v>
+        <v>33.41143016571075</v>
       </c>
       <c r="C115" t="n">
-        <v>20.29934307460239</v>
+        <v>33.46382510724133</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.08136169484263434</v>
+        <v>-0.05239494153057933</v>
       </c>
     </row>
     <row r="116">
@@ -2051,13 +2051,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>20.22216772487983</v>
+        <v>33.42682924458544</v>
       </c>
       <c r="C116" t="n">
-        <v>20.31467729873091</v>
+        <v>33.43198107256987</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.09250957385108549</v>
+        <v>-0.005151827984427371</v>
       </c>
     </row>
     <row r="117">
@@ -2065,13 +2065,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>20.23152681867713</v>
+        <v>33.43524398606506</v>
       </c>
       <c r="C117" t="n">
-        <v>20.29503983667037</v>
+        <v>33.44306303586003</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.0635130179932375</v>
+        <v>-0.007819049794967725</v>
       </c>
     </row>
     <row r="118">
@@ -2079,13 +2079,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>20.24587064821379</v>
+        <v>33.45859284046365</v>
       </c>
       <c r="C118" t="n">
-        <v>20.27703182862563</v>
+        <v>33.4596107424035</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.03116118041184279</v>
+        <v>-0.001017901939846411</v>
       </c>
     </row>
     <row r="119">
@@ -2093,13 +2093,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>20.24592418430242</v>
+        <v>38.9293114221347</v>
       </c>
       <c r="C119" t="n">
-        <v>20.35303453151671</v>
+        <v>39.02834939029302</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.107110347214288</v>
+        <v>-0.09903796815831356</v>
       </c>
     </row>
     <row r="120">
@@ -2107,13 +2107,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>20.25158090893773</v>
+        <v>38.93745482052807</v>
       </c>
       <c r="C120" t="n">
-        <v>20.33505617231138</v>
+        <v>39.0158540098639</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.08347526337364641</v>
+        <v>-0.07839918933583334</v>
       </c>
     </row>
     <row r="121">
@@ -2121,13 +2121,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>20.26049857790876</v>
+        <v>38.96524419910486</v>
       </c>
       <c r="C121" t="n">
-        <v>20.3835994320208</v>
+        <v>39.04115342731296</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.123100854112046</v>
+        <v>-0.0759092282081042</v>
       </c>
     </row>
     <row r="122">
@@ -2135,13 +2135,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>20.26903567756816</v>
+        <v>38.96924256162805</v>
       </c>
       <c r="C122" t="n">
-        <v>20.36235158428206</v>
+        <v>39.05402743660321</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.09331590671390444</v>
+        <v>-0.0847848749751563</v>
       </c>
     </row>
     <row r="123">
@@ -2149,13 +2149,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>20.27582908397256</v>
+        <v>38.97268084658145</v>
       </c>
       <c r="C123" t="n">
-        <v>20.36455314672367</v>
+        <v>39.03845733101641</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.08872406275110833</v>
+        <v>-0.06577648443496287</v>
       </c>
     </row>
     <row r="124">
@@ -2163,13 +2163,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>20.27639474124654</v>
+        <v>38.98211791672975</v>
       </c>
       <c r="C124" t="n">
-        <v>20.3955029256384</v>
+        <v>39.03980658595544</v>
       </c>
       <c r="D124" t="n">
-        <v>-0.1191081843918553</v>
+        <v>-0.0576886692256906</v>
       </c>
     </row>
     <row r="125">
@@ -2177,13 +2177,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>20.28740420875525</v>
+        <v>39.0142767355763</v>
       </c>
       <c r="C125" t="n">
-        <v>20.35541047945493</v>
+        <v>39.02770852561255</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.06800627069968002</v>
+        <v>-0.01343179003624329</v>
       </c>
     </row>
     <row r="126">
@@ -2191,13 +2191,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>20.29678730986862</v>
+        <v>39.71035852732911</v>
       </c>
       <c r="C126" t="n">
-        <v>20.36171453617816</v>
+        <v>39.73926014443744</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.06492722630953907</v>
+        <v>-0.02890161710833894</v>
       </c>
     </row>
     <row r="127">
@@ -2205,13 +2205,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>20.29686531312723</v>
+        <v>39.71911004964339</v>
       </c>
       <c r="C127" t="n">
-        <v>20.39519025055855</v>
+        <v>39.72085328878048</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.09832493743132176</v>
+        <v>-0.001743239137084629</v>
       </c>
     </row>
     <row r="128">
@@ -2219,13 +2219,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>20.29872222946307</v>
+        <v>39.72072532286304</v>
       </c>
       <c r="C128" t="n">
-        <v>20.33032396028529</v>
+        <v>39.82612143129567</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.03160173082222428</v>
+        <v>-0.1053961084326289</v>
       </c>
     </row>
     <row r="129">
@@ -2233,13 +2233,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>20.3117418066055</v>
+        <v>39.74668882150542</v>
       </c>
       <c r="C129" t="n">
-        <v>20.37780662754006</v>
+        <v>39.82025471310984</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.06606482093456023</v>
+        <v>-0.07356589160442439</v>
       </c>
     </row>
     <row r="130">
@@ -2247,13 +2247,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>20.39792147752893</v>
+        <v>39.76090725252708</v>
       </c>
       <c r="C130" t="n">
-        <v>20.26496240208145</v>
+        <v>39.8472466021849</v>
       </c>
       <c r="D130" t="n">
-        <v>0.1329590754474843</v>
+        <v>-0.08633934965781265</v>
       </c>
     </row>
     <row r="131">
@@ -2261,13 +2261,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>21.85952511076139</v>
+        <v>39.76422908588291</v>
       </c>
       <c r="C131" t="n">
-        <v>21.88278175798516</v>
+        <v>39.81189751387566</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.02325664722377496</v>
+        <v>-0.04766842799275395</v>
       </c>
     </row>
     <row r="132">
@@ -2275,13 +2275,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>21.86514082463408</v>
+        <v>39.77617116939739</v>
       </c>
       <c r="C132" t="n">
-        <v>21.97368185536109</v>
+        <v>39.81033078791199</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.1085410307270109</v>
+        <v>-0.03415961851460025</v>
       </c>
     </row>
     <row r="133">
@@ -2289,13 +2289,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>21.8890981021833</v>
+        <v>39.78231118978343</v>
       </c>
       <c r="C133" t="n">
-        <v>21.97718632943852</v>
+        <v>39.79730596204084</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.08808822725521992</v>
+        <v>-0.01499477225740975</v>
       </c>
     </row>
     <row r="134">
@@ -2303,13 +2303,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>21.89378967260763</v>
+        <v>39.78686992951433</v>
       </c>
       <c r="C134" t="n">
-        <v>21.99503952878398</v>
+        <v>39.82359484367907</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.1012498561763557</v>
+        <v>-0.03672491416474344</v>
       </c>
     </row>
     <row r="135">
@@ -2317,13 +2317,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>21.89721517247829</v>
+        <v>39.96327876568543</v>
       </c>
       <c r="C135" t="n">
-        <v>21.99038825740818</v>
+        <v>40.08208511495495</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.0931730849298873</v>
+        <v>-0.1188063492695193</v>
       </c>
     </row>
     <row r="136">
@@ -2331,13 +2331,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>21.90160966512975</v>
+        <v>39.97283023839258</v>
       </c>
       <c r="C136" t="n">
-        <v>21.91738788371024</v>
+        <v>40.03530416573113</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.01577821858048623</v>
+        <v>-0.06247392733855861</v>
       </c>
     </row>
     <row r="137">
@@ -2345,13 +2345,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>21.92055475304539</v>
+        <v>40.01870186156726</v>
       </c>
       <c r="C137" t="n">
-        <v>22.02979898137981</v>
+        <v>40.10138844879116</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.1092442283344219</v>
+        <v>-0.08268658722390398</v>
       </c>
     </row>
     <row r="138">
@@ -2359,13 +2359,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>21.94822503377986</v>
+        <v>40.0389220419181</v>
       </c>
       <c r="C138" t="n">
-        <v>22.02015302760726</v>
+        <v>40.04617908647158</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.07192799382740489</v>
+        <v>-0.007257044553483638</v>
       </c>
     </row>
     <row r="139">
@@ -2373,13 +2373,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>21.95109308037028</v>
+        <v>40.07321416740327</v>
       </c>
       <c r="C139" t="n">
-        <v>21.98674132235709</v>
+        <v>40.09128597448134</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.03564824198680583</v>
+        <v>-0.01807180707807277</v>
       </c>
     </row>
     <row r="140">
@@ -2387,13 +2387,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>21.95496122406195</v>
+        <v>42.70777715746926</v>
       </c>
       <c r="C140" t="n">
-        <v>22.04260668404961</v>
+        <v>42.78983364525286</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.08764545998765882</v>
+        <v>-0.08205648778360342</v>
       </c>
     </row>
     <row r="141">
@@ -2401,13 +2401,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>21.96595986719868</v>
+        <v>42.72541977181022</v>
       </c>
       <c r="C141" t="n">
-        <v>22.04722258265338</v>
+        <v>42.75261428426077</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.08126271545470232</v>
+        <v>-0.02719451245054927</v>
       </c>
     </row>
     <row r="142">
@@ -2415,13 +2415,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>21.98569087411119</v>
+        <v>42.73107565204668</v>
       </c>
       <c r="C142" t="n">
-        <v>21.99196802177721</v>
+        <v>42.8477896736916</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.00627714766602594</v>
+        <v>-0.1167140216449241</v>
       </c>
     </row>
     <row r="143">
@@ -2429,13 +2429,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>21.99275651829688</v>
+        <v>42.75129200936888</v>
       </c>
       <c r="C143" t="n">
-        <v>21.99205017066765</v>
+        <v>42.81525176940167</v>
       </c>
       <c r="D143" t="n">
-        <v>0.0007063476292294979</v>
+        <v>-0.06395976003278747</v>
       </c>
     </row>
     <row r="144">
@@ -2443,13 +2443,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>22.0134957642917</v>
+        <v>42.75144745544561</v>
       </c>
       <c r="C144" t="n">
-        <v>22.04332527669793</v>
+        <v>42.82270589866171</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.02982951240622711</v>
+        <v>-0.07125844321610231</v>
       </c>
     </row>
     <row r="145">
@@ -2457,13 +2457,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>22.01971991663824</v>
+        <v>42.76794407475322</v>
       </c>
       <c r="C145" t="n">
-        <v>22.03712142845729</v>
+        <v>42.79901943643107</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.01740151181904181</v>
+        <v>-0.03107536167784275</v>
       </c>
     </row>
     <row r="146">
@@ -2471,13 +2471,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>23.83511216319841</v>
+        <v>42.77078057538618</v>
       </c>
       <c r="C146" t="n">
-        <v>24.02473903393861</v>
+        <v>42.79769211722265</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.1896268707401916</v>
+        <v>-0.02691154183647626</v>
       </c>
     </row>
     <row r="147">
@@ -2485,13 +2485,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>23.84743702777676</v>
+        <v>42.77503752035528</v>
       </c>
       <c r="C147" t="n">
-        <v>23.85749629402717</v>
+        <v>42.80532276028605</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.01005926625040487</v>
+        <v>-0.0302852399307767</v>
       </c>
     </row>
     <row r="148">
@@ -2499,13 +2499,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>23.8587590555432</v>
+        <v>42.79230270125866</v>
       </c>
       <c r="C148" t="n">
-        <v>23.88890652085029</v>
+        <v>42.82346335930377</v>
       </c>
       <c r="D148" t="n">
-        <v>-0.03014746530708834</v>
+        <v>-0.03116065804510981</v>
       </c>
     </row>
     <row r="149">
@@ -2513,13 +2513,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>23.86249197578618</v>
+        <v>43.74874156952125</v>
       </c>
       <c r="C149" t="n">
-        <v>24.02247769287613</v>
+        <v>43.79837308767152</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.1599857170899455</v>
+        <v>-0.04963151815027089</v>
       </c>
     </row>
     <row r="150">
@@ -2527,13 +2527,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>23.86889714115401</v>
+        <v>43.74887790740856</v>
       </c>
       <c r="C150" t="n">
-        <v>23.89677328023267</v>
+        <v>43.873036171942</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.0278761390786606</v>
+        <v>-0.1241582645334418</v>
       </c>
     </row>
     <row r="151">
@@ -2541,13 +2541,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>23.88111563477973</v>
+        <v>43.75012933898957</v>
       </c>
       <c r="C151" t="n">
-        <v>23.97421011775813</v>
+        <v>43.8732155668291</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.09309448297839396</v>
+        <v>-0.1230862278395364</v>
       </c>
     </row>
     <row r="152">
@@ -2555,13 +2555,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>23.91867469347896</v>
+        <v>43.75896045594772</v>
       </c>
       <c r="C152" t="n">
-        <v>23.98738187326692</v>
+        <v>43.85154501004129</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.06870717978795682</v>
+        <v>-0.0925845540935768</v>
       </c>
     </row>
     <row r="153">
@@ -2569,13 +2569,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>23.93483230728772</v>
+        <v>43.77518365362869</v>
       </c>
       <c r="C153" t="n">
-        <v>23.93658113093404</v>
+        <v>43.80674387849864</v>
       </c>
       <c r="D153" t="n">
-        <v>-0.001748823646316566</v>
+        <v>-0.03156022486995624</v>
       </c>
     </row>
     <row r="154">
@@ -2583,13 +2583,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>23.96021412121962</v>
+        <v>43.77881301207377</v>
       </c>
       <c r="C154" t="n">
-        <v>24.02839216862047</v>
+        <v>43.81217183408892</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.0681780474008562</v>
+        <v>-0.03335882201515261</v>
       </c>
     </row>
     <row r="155">
@@ -2597,13 +2597,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>24.00218456985617</v>
+        <v>43.81241608453981</v>
       </c>
       <c r="C155" t="n">
-        <v>24.03002807993671</v>
+        <v>43.82833341848501</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.02784351008054387</v>
+        <v>-0.01591733394520389</v>
       </c>
     </row>
     <row r="156">
@@ -2611,13 +2611,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>24.00514552014906</v>
+        <v>43.82652231943317</v>
       </c>
       <c r="C156" t="n">
-        <v>24.0205734510967</v>
+        <v>43.83535326863952</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.01542793094763439</v>
+        <v>-0.008830949206355854</v>
       </c>
     </row>
     <row r="157">
@@ -2625,13 +2625,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>24.14325428164888</v>
+        <v>45.10161930229091</v>
       </c>
       <c r="C157" t="n">
-        <v>23.9607447043271</v>
+        <v>45.1174888536589</v>
       </c>
       <c r="D157" t="n">
-        <v>0.1825095773217811</v>
+        <v>-0.01586955136799162</v>
       </c>
     </row>
     <row r="158">
@@ -2639,13 +2639,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>24.21474880076726</v>
+        <v>45.10459221398877</v>
       </c>
       <c r="C158" t="n">
-        <v>24.28819266818833</v>
+        <v>45.19844589910184</v>
       </c>
       <c r="D158" t="n">
-        <v>-0.07344386742107645</v>
+        <v>-0.0938536851130749</v>
       </c>
     </row>
     <row r="159">
@@ -2653,13 +2653,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>24.2214146134809</v>
+        <v>45.12512907503431</v>
       </c>
       <c r="C159" t="n">
-        <v>24.29237114830462</v>
+        <v>45.13285163862488</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.070956534823722</v>
+        <v>-0.007722563590569109</v>
       </c>
     </row>
     <row r="160">
@@ -2667,13 +2667,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>24.22745069246788</v>
+        <v>45.14002671389949</v>
       </c>
       <c r="C160" t="n">
-        <v>24.39049199001426</v>
+        <v>45.23526718482078</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.1630412975463749</v>
+        <v>-0.09524047092128995</v>
       </c>
     </row>
     <row r="161">
@@ -2681,13 +2681,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>24.23170805026368</v>
+        <v>45.14477737576481</v>
       </c>
       <c r="C161" t="n">
-        <v>24.32969848191546</v>
+        <v>45.21332273074083</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.09799043165177679</v>
+        <v>-0.06854535497601688</v>
       </c>
     </row>
     <row r="162">
@@ -2695,13 +2695,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>24.23601850186981</v>
+        <v>45.15749415195834</v>
       </c>
       <c r="C162" t="n">
-        <v>24.24468943926406</v>
+        <v>45.2064347905176</v>
       </c>
       <c r="D162" t="n">
-        <v>-0.008670937394249734</v>
+        <v>-0.04894063855925879</v>
       </c>
     </row>
     <row r="163">
@@ -2709,13 +2709,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>24.31416079153352</v>
+        <v>45.15781535973328</v>
       </c>
       <c r="C163" t="n">
-        <v>24.32350772836007</v>
+        <v>45.20943033809031</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.009346936826545971</v>
+        <v>-0.05161497835703699</v>
       </c>
     </row>
     <row r="164">
@@ -2723,13 +2723,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>24.31416306652854</v>
+        <v>45.1681363210206</v>
       </c>
       <c r="C164" t="n">
-        <v>24.41769375439844</v>
+        <v>45.20038749230202</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.103530687869906</v>
+        <v>-0.03225117128141619</v>
       </c>
     </row>
     <row r="165">
@@ -2737,13 +2737,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>24.34457254337139</v>
+        <v>45.19163560882171</v>
       </c>
       <c r="C165" t="n">
-        <v>24.26805136023124</v>
+        <v>45.19163892392421</v>
       </c>
       <c r="D165" t="n">
-        <v>0.076521183140148</v>
+        <v>-3.31510249651501e-06</v>
       </c>
     </row>
     <row r="166">
@@ -2751,13 +2751,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>24.35885449103626</v>
+        <v>45.20363765193094</v>
       </c>
       <c r="C166" t="n">
-        <v>24.41720103740118</v>
+        <v>45.22056835800025</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.05834654636492331</v>
+        <v>-0.01693070606931002</v>
       </c>
     </row>
     <row r="167">
@@ -2765,13 +2765,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>24.49318346736676</v>
+        <v>45.20371665191977</v>
       </c>
       <c r="C167" t="n">
-        <v>24.58676475415743</v>
+        <v>45.21489148929285</v>
       </c>
       <c r="D167" t="n">
-        <v>-0.09358128679066979</v>
+        <v>-0.01117483737307623</v>
       </c>
     </row>
     <row r="168">
@@ -2779,13 +2779,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>24.50543616085994</v>
+        <v>45.21752861498048</v>
       </c>
       <c r="C168" t="n">
-        <v>24.59584373218711</v>
+        <v>45.32733868722983</v>
       </c>
       <c r="D168" t="n">
-        <v>-0.09040757132716593</v>
+        <v>-0.1098100722493456</v>
       </c>
     </row>
     <row r="169">
@@ -2793,13 +2793,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>24.50767681088942</v>
+        <v>45.21813687592143</v>
       </c>
       <c r="C169" t="n">
-        <v>24.54214716304911</v>
+        <v>45.28634274533698</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.03447035215969052</v>
+        <v>-0.06820586941555007</v>
       </c>
     </row>
     <row r="170">
@@ -2807,13 +2807,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>24.59106915311904</v>
+        <v>45.22398387734035</v>
       </c>
       <c r="C170" t="n">
-        <v>24.64128824458023</v>
+        <v>45.3220491548295</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.05021909146118375</v>
+        <v>-0.09806527748914817</v>
       </c>
     </row>
     <row r="171">
@@ -2821,13 +2821,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>24.59376423103748</v>
+        <v>45.22659179336409</v>
       </c>
       <c r="C171" t="n">
-        <v>24.66566650624981</v>
+        <v>45.30759212167085</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.07190227521233084</v>
+        <v>-0.0810003283067644</v>
       </c>
     </row>
     <row r="172">
@@ -2835,13 +2835,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>24.5954852974569</v>
+        <v>45.25745781347015</v>
       </c>
       <c r="C172" t="n">
-        <v>24.6584220631805</v>
+        <v>45.31307157797633</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.06293676572359885</v>
+        <v>-0.05561376450617672</v>
       </c>
     </row>
     <row r="173">
@@ -2849,13 +2849,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>24.60299941090779</v>
+        <v>45.2576515370339</v>
       </c>
       <c r="C173" t="n">
-        <v>24.64878485605183</v>
+        <v>45.34249914512523</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.0457854451440376</v>
+        <v>-0.08484760809133007</v>
       </c>
     </row>
     <row r="174">
@@ -2863,13 +2863,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>24.62507647149192</v>
+        <v>45.26204419613057</v>
       </c>
       <c r="C174" t="n">
-        <v>24.67591974300491</v>
+        <v>45.30170657259835</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.05084327151298496</v>
+        <v>-0.03966237646777415</v>
       </c>
     </row>
     <row r="175">
@@ -2877,13 +2877,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>25.08535166825933</v>
+        <v>45.26309254069172</v>
       </c>
       <c r="C175" t="n">
-        <v>25.14689572158483</v>
+        <v>45.31621305602492</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.06154405332550184</v>
+        <v>-0.05312051533320528</v>
       </c>
     </row>
     <row r="176">
@@ -2891,13 +2891,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>25.0907224916787</v>
+        <v>45.27523957247792</v>
       </c>
       <c r="C176" t="n">
-        <v>25.1766288984993</v>
+        <v>45.32053567241687</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.08590640682060169</v>
+        <v>-0.04529609993894468</v>
       </c>
     </row>
     <row r="177">
@@ -2905,13 +2905,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>25.09315161073408</v>
+        <v>45.28016142168637</v>
       </c>
       <c r="C177" t="n">
-        <v>25.19556765292738</v>
+        <v>45.34763814989365</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.102416042193294</v>
+        <v>-0.06747672820728212</v>
       </c>
     </row>
     <row r="178">
@@ -2919,13 +2919,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>25.09636692608644</v>
+        <v>45.28067026041038</v>
       </c>
       <c r="C178" t="n">
-        <v>25.21465604907687</v>
+        <v>45.21678231851929</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.1182891229904293</v>
+        <v>0.06388794189108893</v>
       </c>
     </row>
     <row r="179">
@@ -2933,13 +2933,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>25.10019009279434</v>
+        <v>45.28957201566443</v>
       </c>
       <c r="C179" t="n">
-        <v>25.26556865986364</v>
+        <v>45.32890056423483</v>
       </c>
       <c r="D179" t="n">
-        <v>-0.1653785670693004</v>
+        <v>-0.03932854857039558</v>
       </c>
     </row>
     <row r="180">
@@ -2947,13 +2947,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>25.14559446157246</v>
+        <v>45.29132476827841</v>
       </c>
       <c r="C180" t="n">
-        <v>25.28176290108513</v>
+        <v>45.31281876847663</v>
       </c>
       <c r="D180" t="n">
-        <v>-0.1361684395126659</v>
+        <v>-0.02149400019821712</v>
       </c>
     </row>
     <row r="181">
@@ -2961,13 +2961,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>25.1482573888728</v>
+        <v>45.32395023015693</v>
       </c>
       <c r="C181" t="n">
-        <v>25.30100165197088</v>
+        <v>45.32982957919795</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.1527442630980858</v>
+        <v>-0.005879349041016724</v>
       </c>
     </row>
     <row r="182">
@@ -2975,13 +2975,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>25.16883910398407</v>
+        <v>45.33619610226787</v>
       </c>
       <c r="C182" t="n">
-        <v>25.296158542601</v>
+        <v>45.33955908119748</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.1273194386169294</v>
+        <v>-0.003362978929608573</v>
       </c>
     </row>
     <row r="183">
@@ -2989,13 +2989,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>25.17115185221839</v>
+        <v>45.45667856202672</v>
       </c>
       <c r="C183" t="n">
-        <v>25.27159506679277</v>
+        <v>45.21928775862629</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.1004432145743763</v>
+        <v>0.2373908034004302</v>
       </c>
     </row>
     <row r="184">
@@ -3003,13 +3003,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>25.18615275525202</v>
+        <v>45.46921071671576</v>
       </c>
       <c r="C184" t="n">
-        <v>25.23234050842411</v>
+        <v>45.595354926126</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.04618775317208446</v>
+        <v>-0.126144209410235</v>
       </c>
     </row>
     <row r="185">
@@ -3017,13 +3017,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>25.18747506574252</v>
+        <v>45.47118925671833</v>
       </c>
       <c r="C185" t="n">
-        <v>25.20983348650993</v>
+        <v>45.49021457170942</v>
       </c>
       <c r="D185" t="n">
-        <v>-0.02235842076740369</v>
+        <v>-0.01902531499109017</v>
       </c>
     </row>
     <row r="186">
@@ -3031,13 +3031,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>25.19743558543374</v>
+        <v>45.48342379067158</v>
       </c>
       <c r="C186" t="n">
-        <v>25.2100507539689</v>
+        <v>45.53367036172536</v>
       </c>
       <c r="D186" t="n">
-        <v>-0.01261516853516298</v>
+        <v>-0.05024657105377628</v>
       </c>
     </row>
     <row r="187">
@@ -3045,13 +3045,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>25.19879239424915</v>
+        <v>45.48396539558551</v>
       </c>
       <c r="C187" t="n">
-        <v>25.28114507386569</v>
+        <v>45.57722027343286</v>
       </c>
       <c r="D187" t="n">
-        <v>-0.08235267961653392</v>
+        <v>-0.09325487784735031</v>
       </c>
     </row>
     <row r="188">
@@ -3059,13 +3059,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>25.36796316838233</v>
+        <v>45.48511918884152</v>
       </c>
       <c r="C188" t="n">
-        <v>25.27004569294055</v>
+        <v>45.60079493673404</v>
       </c>
       <c r="D188" t="n">
-        <v>0.09791747544177554</v>
+        <v>-0.1156757478925172</v>
       </c>
     </row>
     <row r="189">
@@ -3073,13 +3073,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>25.65364920378868</v>
+        <v>45.51219134207597</v>
       </c>
       <c r="C189" t="n">
-        <v>25.28958546629417</v>
+        <v>45.52620089032759</v>
       </c>
       <c r="D189" t="n">
-        <v>0.3640637374945079</v>
+        <v>-0.0140095482516216</v>
       </c>
     </row>
     <row r="190">
@@ -3087,13 +3087,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>29.86214949106461</v>
+        <v>45.52676087084818</v>
       </c>
       <c r="C190" t="n">
-        <v>30.07557829850085</v>
+        <v>45.59698404181582</v>
       </c>
       <c r="D190" t="n">
-        <v>-0.2134288074362409</v>
+        <v>-0.07022317096764397</v>
       </c>
     </row>
     <row r="191">
@@ -3101,13 +3101,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>29.86352927043596</v>
+        <v>45.53190278309923</v>
       </c>
       <c r="C191" t="n">
-        <v>30.03608487329768</v>
+        <v>45.58516054573256</v>
       </c>
       <c r="D191" t="n">
-        <v>-0.1725556028617241</v>
+        <v>-0.05325776263332926</v>
       </c>
     </row>
     <row r="192">
@@ -3115,13 +3115,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>29.88983978019069</v>
+        <v>45.54441729157514</v>
       </c>
       <c r="C192" t="n">
-        <v>29.89507056954127</v>
+        <v>45.59065372914834</v>
       </c>
       <c r="D192" t="n">
-        <v>-0.005230789350584075</v>
+        <v>-0.0462364375731994</v>
       </c>
     </row>
     <row r="193">
@@ -3129,13 +3129,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>29.91357014570205</v>
+        <v>45.54661958767856</v>
       </c>
       <c r="C193" t="n">
-        <v>30.08310460906009</v>
+        <v>45.5556536928538</v>
       </c>
       <c r="D193" t="n">
-        <v>-0.1695344633580405</v>
+        <v>-0.009034105175238949</v>
       </c>
     </row>
     <row r="194">
@@ -3143,13 +3143,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>29.92721593780964</v>
+        <v>45.56010637043099</v>
       </c>
       <c r="C194" t="n">
-        <v>29.95622619274882</v>
+        <v>45.58678934525975</v>
       </c>
       <c r="D194" t="n">
-        <v>-0.02901025493917686</v>
+        <v>-0.02668297482875914</v>
       </c>
     </row>
     <row r="195">
@@ -3157,13 +3157,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>29.92884708190863</v>
+        <v>45.56441986927929</v>
       </c>
       <c r="C195" t="n">
-        <v>30.02560524157179</v>
+        <v>45.61735836359131</v>
       </c>
       <c r="D195" t="n">
-        <v>-0.09675815966316037</v>
+        <v>-0.05293849431202347</v>
       </c>
     </row>
     <row r="196">
@@ -3171,13 +3171,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>29.95493831120839</v>
+        <v>45.57823265946367</v>
       </c>
       <c r="C196" t="n">
-        <v>30.03724267286618</v>
+        <v>45.58038985887674</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.08230436165779054</v>
+        <v>-0.002157199413076683</v>
       </c>
     </row>
     <row r="197">
@@ -3185,13 +3185,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>29.96489684996956</v>
+        <v>45.69323137787907</v>
       </c>
       <c r="C197" t="n">
-        <v>29.99743602069935</v>
+        <v>45.56146886440224</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.03253917072979462</v>
+        <v>0.1317625134768292</v>
       </c>
     </row>
     <row r="198">
@@ -3199,13 +3199,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>29.97282432751741</v>
+        <v>49.07488016643885</v>
       </c>
       <c r="C198" t="n">
-        <v>30.03534452050516</v>
+        <v>49.12191991856742</v>
       </c>
       <c r="D198" t="n">
-        <v>-0.06252019298775124</v>
+        <v>-0.04703975212857614</v>
       </c>
     </row>
     <row r="199">
@@ -3213,13 +3213,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>30.00349139134763</v>
+        <v>49.10501454930068</v>
       </c>
       <c r="C199" t="n">
-        <v>30.03093379522267</v>
+        <v>49.11581821962216</v>
       </c>
       <c r="D199" t="n">
-        <v>-0.02744240387503893</v>
+        <v>-0.01080367032148644</v>
       </c>
     </row>
     <row r="200">
@@ -3227,13 +3227,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>30.00533995466726</v>
+        <v>49.11403560788509</v>
       </c>
       <c r="C200" t="n">
-        <v>30.06077209709411</v>
+        <v>49.24278166731573</v>
       </c>
       <c r="D200" t="n">
-        <v>-0.05543214242684513</v>
+        <v>-0.1287460594306395</v>
       </c>
     </row>
     <row r="201">
@@ -3241,13 +3241,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>30.01765474563864</v>
+        <v>49.13520885808486</v>
       </c>
       <c r="C201" t="n">
-        <v>30.04427822238498</v>
+        <v>49.15684027377137</v>
       </c>
       <c r="D201" t="n">
-        <v>-0.02662347674633736</v>
+        <v>-0.02163141568651383</v>
       </c>
     </row>
     <row r="202">
@@ -3255,13 +3255,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>30.23978110797118</v>
+        <v>49.16600710416697</v>
       </c>
       <c r="C202" t="n">
-        <v>30.34815311084415</v>
+        <v>49.1728331109611</v>
       </c>
       <c r="D202" t="n">
-        <v>-0.1083720028729722</v>
+        <v>-0.006826006794135253</v>
       </c>
     </row>
     <row r="203">
@@ -3269,13 +3269,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>30.24029492812834</v>
+        <v>49.16904779782531</v>
       </c>
       <c r="C203" t="n">
-        <v>30.33412601076365</v>
+        <v>49.19906484208879</v>
       </c>
       <c r="D203" t="n">
-        <v>-0.0938310826353117</v>
+        <v>-0.03001704426348084</v>
       </c>
     </row>
     <row r="204">
@@ -3283,13 +3283,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>30.25286119160171</v>
+        <v>50.84708369140476</v>
       </c>
       <c r="C204" t="n">
-        <v>30.25674537710859</v>
+        <v>50.88345476925228</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.003884185506876747</v>
+        <v>-0.03637107784752658</v>
       </c>
     </row>
     <row r="205">
@@ -3297,13 +3297,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>30.3110390345669</v>
+        <v>50.85808873348576</v>
       </c>
       <c r="C205" t="n">
-        <v>30.37636898187358</v>
+        <v>50.96299398620983</v>
       </c>
       <c r="D205" t="n">
-        <v>-0.06532994730667951</v>
+        <v>-0.1049052527240661</v>
       </c>
     </row>
     <row r="206">
@@ -3311,13 +3311,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>30.31198191929701</v>
+        <v>50.86642393458644</v>
       </c>
       <c r="C206" t="n">
-        <v>30.44131395873655</v>
+        <v>50.93248717757479</v>
       </c>
       <c r="D206" t="n">
-        <v>-0.1293320394395359</v>
+        <v>-0.0660632429883492</v>
       </c>
     </row>
     <row r="207">
@@ -3325,13 +3325,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>30.33372110981596</v>
+        <v>50.91164551851074</v>
       </c>
       <c r="C207" t="n">
-        <v>30.36005014671354</v>
+        <v>50.94282998043258</v>
       </c>
       <c r="D207" t="n">
-        <v>-0.02632903689757882</v>
+        <v>-0.03118446192184621</v>
       </c>
     </row>
     <row r="208">
@@ -3339,13 +3339,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>30.33897386120282</v>
+        <v>50.91350894572209</v>
       </c>
       <c r="C208" t="n">
-        <v>30.39547388814379</v>
+        <v>50.95515733460145</v>
       </c>
       <c r="D208" t="n">
-        <v>-0.05650002694097367</v>
+        <v>-0.04164838887935218</v>
       </c>
     </row>
     <row r="209">
@@ -3353,13 +3353,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>30.36126955950067</v>
+        <v>50.92835473966905</v>
       </c>
       <c r="C209" t="n">
-        <v>30.45165744988512</v>
+        <v>50.95020064717195</v>
       </c>
       <c r="D209" t="n">
-        <v>-0.09038789038444861</v>
+        <v>-0.02184590750290027</v>
       </c>
     </row>
     <row r="210">
@@ -3367,13 +3367,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>30.37448351346693</v>
+        <v>50.94980095964388</v>
       </c>
       <c r="C210" t="n">
-        <v>30.3899497801428</v>
+        <v>50.95998551287373</v>
       </c>
       <c r="D210" t="n">
-        <v>-0.01546626667586182</v>
+        <v>-0.01018455322984835</v>
       </c>
     </row>
     <row r="211">
@@ -3381,13 +3381,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>30.37757164240812</v>
+        <v>51.19764215228701</v>
       </c>
       <c r="C211" t="n">
-        <v>30.37918294895504</v>
+        <v>51.25848548850923</v>
       </c>
       <c r="D211" t="n">
-        <v>-0.001611306546919877</v>
+        <v>-0.06084333622222005</v>
       </c>
     </row>
     <row r="212">
@@ -3395,13 +3395,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>30.43345574318785</v>
+        <v>51.20121306865106</v>
       </c>
       <c r="C212" t="n">
-        <v>30.44095878882958</v>
+        <v>51.22011761132214</v>
       </c>
       <c r="D212" t="n">
-        <v>-0.007503045641733763</v>
+        <v>-0.01890454267107344</v>
       </c>
     </row>
     <row r="213">
@@ -3409,13 +3409,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>30.43830605104559</v>
+        <v>51.20385385579178</v>
       </c>
       <c r="C213" t="n">
-        <v>30.44147148895337</v>
+        <v>51.23441580130333</v>
       </c>
       <c r="D213" t="n">
-        <v>-0.00316543790778212</v>
+        <v>-0.03056194551154334</v>
       </c>
     </row>
     <row r="214">
@@ -3423,13 +3423,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>30.53127686723474</v>
+        <v>51.21589788973488</v>
       </c>
       <c r="C214" t="n">
-        <v>30.45451915367956</v>
+        <v>51.26718108692261</v>
       </c>
       <c r="D214" t="n">
-        <v>0.07675771355518179</v>
+        <v>-0.0512831971877219</v>
       </c>
     </row>
     <row r="215">
@@ -3437,13 +3437,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>30.5605094199923</v>
+        <v>51.25556333300548</v>
       </c>
       <c r="C215" t="n">
-        <v>30.30098601929687</v>
+        <v>51.28983026604617</v>
       </c>
       <c r="D215" t="n">
-        <v>0.259523400695425</v>
+        <v>-0.03426693304069772</v>
       </c>
     </row>
     <row r="216">
@@ -3451,13 +3451,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>33.89065329668835</v>
+        <v>51.25762471483702</v>
       </c>
       <c r="C216" t="n">
-        <v>33.98421936023185</v>
+        <v>51.25833965011223</v>
       </c>
       <c r="D216" t="n">
-        <v>-0.09356606354350561</v>
+        <v>-0.0007149352752122695</v>
       </c>
     </row>
     <row r="217">
@@ -3465,13 +3465,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>33.8920383002114</v>
+        <v>51.26453784191647</v>
       </c>
       <c r="C217" t="n">
-        <v>34.0306401370203</v>
+        <v>51.27240844152884</v>
       </c>
       <c r="D217" t="n">
-        <v>-0.1386018368089026</v>
+        <v>-0.007870599612367357</v>
       </c>
     </row>
     <row r="218">
@@ -3479,13 +3479,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>33.90014312886904</v>
+        <v>51.26988741511118</v>
       </c>
       <c r="C218" t="n">
-        <v>34.00464770489034</v>
+        <v>51.27354430620876</v>
       </c>
       <c r="D218" t="n">
-        <v>-0.1045045760212986</v>
+        <v>-0.003656891097584491</v>
       </c>
     </row>
     <row r="219">
@@ -3493,13 +3493,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>33.91707879239057</v>
+        <v>51.27439368009775</v>
       </c>
       <c r="C219" t="n">
-        <v>34.07998406577951</v>
+        <v>51.28583430400477</v>
       </c>
       <c r="D219" t="n">
-        <v>-0.1629052733889367</v>
+        <v>-0.01144062390702061</v>
       </c>
     </row>
     <row r="220">
@@ -3507,13 +3507,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>33.93012257358252</v>
+        <v>51.27832299830999</v>
       </c>
       <c r="C220" t="n">
-        <v>34.01140541398199</v>
+        <v>51.29479940849318</v>
       </c>
       <c r="D220" t="n">
-        <v>-0.08128284039947431</v>
+        <v>-0.0164764101831949</v>
       </c>
     </row>
     <row r="221">
@@ -3521,13 +3521,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>33.95559568854861</v>
+        <v>51.29099942456384</v>
       </c>
       <c r="C221" t="n">
-        <v>34.07073269295067</v>
+        <v>51.32394115902988</v>
       </c>
       <c r="D221" t="n">
-        <v>-0.1151370044020652</v>
+        <v>-0.03294173446603565</v>
       </c>
     </row>
     <row r="222">
@@ -3535,13 +3535,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>34.01658284162519</v>
+        <v>52.97706306715854</v>
       </c>
       <c r="C222" t="n">
-        <v>34.0458259615759</v>
+        <v>53.0163146023758</v>
       </c>
       <c r="D222" t="n">
-        <v>-0.02924311995071349</v>
+        <v>-0.03925153521726088</v>
       </c>
     </row>
     <row r="223">
@@ -3549,13 +3549,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>34.43726432647138</v>
+        <v>53.01412813752903</v>
       </c>
       <c r="C223" t="n">
-        <v>34.03359468513452</v>
+        <v>53.01875012592802</v>
       </c>
       <c r="D223" t="n">
-        <v>0.4036696413368617</v>
+        <v>-0.004621988398980648</v>
       </c>
     </row>
     <row r="224">
@@ -3563,13 +3563,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>35.90666353004993</v>
+        <v>53.01559738053817</v>
       </c>
       <c r="C224" t="n">
-        <v>35.98437188976194</v>
+        <v>53.03576341222541</v>
       </c>
       <c r="D224" t="n">
-        <v>-0.07770835971201251</v>
+        <v>-0.02016603168723918</v>
       </c>
     </row>
     <row r="225">
@@ -3577,13 +3577,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>35.916713183893</v>
+        <v>53.03099358936512</v>
       </c>
       <c r="C225" t="n">
-        <v>36.11269077502295</v>
+        <v>53.1234665792615</v>
       </c>
       <c r="D225" t="n">
-        <v>-0.1959775911299531</v>
+        <v>-0.09247298989637898</v>
       </c>
     </row>
     <row r="226">
@@ -3591,13 +3591,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>35.93641282836166</v>
+        <v>53.07120948883284</v>
       </c>
       <c r="C226" t="n">
-        <v>36.09982892740092</v>
+        <v>53.09853884621546</v>
       </c>
       <c r="D226" t="n">
-        <v>-0.1634160990392601</v>
+        <v>-0.02732935738262654</v>
       </c>
     </row>
     <row r="227">
@@ -3605,13 +3605,13 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>35.95421299034356</v>
+        <v>53.07438278673578</v>
       </c>
       <c r="C227" t="n">
-        <v>35.98837108620597</v>
+        <v>53.07587833037896</v>
       </c>
       <c r="D227" t="n">
-        <v>-0.03415809586240215</v>
+        <v>-0.001495543643187602</v>
       </c>
     </row>
     <row r="228">
@@ -3619,13 +3619,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>35.95426962661692</v>
+        <v>53.10259574172625</v>
       </c>
       <c r="C228" t="n">
-        <v>36.04446574851445</v>
+        <v>53.12202629131464</v>
       </c>
       <c r="D228" t="n">
-        <v>-0.09019612189753445</v>
+        <v>-0.01943054958839241</v>
       </c>
     </row>
     <row r="229">
@@ -3633,13 +3633,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>35.9628555861494</v>
+        <v>53.1063685821975</v>
       </c>
       <c r="C229" t="n">
-        <v>35.99151518692943</v>
+        <v>53.11684549973029</v>
       </c>
       <c r="D229" t="n">
-        <v>-0.02865960078003127</v>
+        <v>-0.01047691753279167</v>
       </c>
     </row>
     <row r="230">
@@ -3647,13 +3647,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>35.9732604433888</v>
+        <v>56.60053542765039</v>
       </c>
       <c r="C230" t="n">
-        <v>36.01336664455368</v>
+        <v>56.71615026077762</v>
       </c>
       <c r="D230" t="n">
-        <v>-0.04010620116488894</v>
+        <v>-0.1156148331272249</v>
       </c>
     </row>
     <row r="231">
@@ -3661,13 +3661,13 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>36.0173367514874</v>
+        <v>56.62102513294465</v>
       </c>
       <c r="C231" t="n">
-        <v>36.06653503542846</v>
+        <v>56.71938637199326</v>
       </c>
       <c r="D231" t="n">
-        <v>-0.04919828394105963</v>
+        <v>-0.09836123904860727</v>
       </c>
     </row>
     <row r="232">
@@ -3675,13 +3675,13 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>36.05055359840131</v>
+        <v>56.62249288495209</v>
       </c>
       <c r="C232" t="n">
-        <v>36.0723672609752</v>
+        <v>56.70264929738628</v>
       </c>
       <c r="D232" t="n">
-        <v>-0.02181366257389072</v>
+        <v>-0.08015641243419225</v>
       </c>
     </row>
     <row r="233">
@@ -3689,13 +3689,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>36.05740199386391</v>
+        <v>56.6376471475108</v>
       </c>
       <c r="C233" t="n">
-        <v>36.11630316259823</v>
+        <v>56.69164053451613</v>
       </c>
       <c r="D233" t="n">
-        <v>-0.05890116873431595</v>
+        <v>-0.05399338700532752</v>
       </c>
     </row>
     <row r="234">
@@ -3703,13 +3703,13 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>36.06563562480878</v>
+        <v>56.67614706661656</v>
       </c>
       <c r="C234" t="n">
-        <v>36.10395461153245</v>
+        <v>56.68301048182253</v>
       </c>
       <c r="D234" t="n">
-        <v>-0.03831898672366663</v>
+        <v>-0.006863415205970114</v>
       </c>
     </row>
     <row r="235">
@@ -3717,13 +3717,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>36.10855510668949</v>
+        <v>59.58408228040688</v>
       </c>
       <c r="C235" t="n">
-        <v>36.10888421196962</v>
+        <v>59.59510320431207</v>
       </c>
       <c r="D235" t="n">
-        <v>-0.0003291052801372985</v>
+        <v>-0.0110209239051926</v>
       </c>
     </row>
     <row r="236">
@@ -3731,13 +3731,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>40.45637167968371</v>
+        <v>59.59959026158706</v>
       </c>
       <c r="C236" t="n">
-        <v>40.50637158658844</v>
+        <v>59.69261161253714</v>
       </c>
       <c r="D236" t="n">
-        <v>-0.04999990690473055</v>
+        <v>-0.09302135095007458</v>
       </c>
     </row>
     <row r="237">
@@ -3745,13 +3745,13 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>40.47076228232962</v>
+        <v>59.65793936694632</v>
       </c>
       <c r="C237" t="n">
-        <v>40.62116589657341</v>
+        <v>59.66840211328449</v>
       </c>
       <c r="D237" t="n">
-        <v>-0.1504036142437855</v>
+        <v>-0.01046274633817035</v>
       </c>
     </row>
     <row r="238">
@@ -3759,13 +3759,13 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>40.47951717574629</v>
+        <v>59.67226590595799</v>
       </c>
       <c r="C238" t="n">
-        <v>40.52697192280188</v>
+        <v>59.68177785901802</v>
       </c>
       <c r="D238" t="n">
-        <v>-0.04745474705559616</v>
+        <v>-0.009511953060034273</v>
       </c>
     </row>
     <row r="239">
@@ -3773,13 +3773,13 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>40.48709304425623</v>
+        <v>59.70772035478524</v>
       </c>
       <c r="C239" t="n">
-        <v>40.60861819216438</v>
+        <v>59.72675166528786</v>
       </c>
       <c r="D239" t="n">
-        <v>-0.1215251479081516</v>
+        <v>-0.0190313105026263</v>
       </c>
     </row>
     <row r="240">
@@ -3787,13 +3787,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>40.50285407921528</v>
+        <v>68.90485540322412</v>
       </c>
       <c r="C240" t="n">
-        <v>40.51249418642799</v>
+        <v>69.03443191444133</v>
       </c>
       <c r="D240" t="n">
-        <v>-0.009640107212710802</v>
+        <v>-0.1295765112172091</v>
       </c>
     </row>
     <row r="241">
@@ -3801,13 +3801,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>40.51044399849026</v>
+        <v>68.9268166789534</v>
       </c>
       <c r="C241" t="n">
-        <v>40.54391472552777</v>
+        <v>69.04824249426407</v>
       </c>
       <c r="D241" t="n">
-        <v>-0.03347072703751053</v>
+        <v>-0.1214258153106726</v>
       </c>
     </row>
     <row r="242">
@@ -3815,13 +3815,13 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>40.51205551867425</v>
+        <v>68.94165292282969</v>
       </c>
       <c r="C242" t="n">
-        <v>40.58003680249946</v>
+        <v>69.05272475319441</v>
       </c>
       <c r="D242" t="n">
-        <v>-0.06798128382521185</v>
+        <v>-0.1110718303647218</v>
       </c>
     </row>
     <row r="243">
@@ -3829,13 +3829,13 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>40.51332870435945</v>
+        <v>68.96304332538223</v>
       </c>
       <c r="C243" t="n">
-        <v>40.60412657902057</v>
+        <v>68.98781179383391</v>
       </c>
       <c r="D243" t="n">
-        <v>-0.09079787466112066</v>
+        <v>-0.02476846845168268</v>
       </c>
     </row>
     <row r="244">
@@ -3843,13 +3843,13 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>40.51389460780258</v>
+        <v>69.01625101357195</v>
       </c>
       <c r="C244" t="n">
-        <v>40.71120381035844</v>
+        <v>69.04510869773628</v>
       </c>
       <c r="D244" t="n">
-        <v>-0.1973092025558643</v>
+        <v>-0.02885768416433621</v>
       </c>
     </row>
     <row r="245">
@@ -3857,13 +3857,13 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>40.53057858001394</v>
+        <v>69.03510759363259</v>
       </c>
       <c r="C245" t="n">
-        <v>40.60075642266222</v>
+        <v>69.04277759670582</v>
       </c>
       <c r="D245" t="n">
-        <v>-0.07017784264827753</v>
+        <v>-0.007670003073229736</v>
       </c>
     </row>
     <row r="246">
@@ -3871,13 +3871,13 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>40.54067975248891</v>
+        <v>69.04632818155349</v>
       </c>
       <c r="C246" t="n">
-        <v>40.5457241095659</v>
+        <v>69.04982368610098</v>
       </c>
       <c r="D246" t="n">
-        <v>-0.00504435707699713</v>
+        <v>-0.003495504547487371</v>
       </c>
     </row>
     <row r="247">
@@ -3885,13 +3885,13 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>40.54468197578968</v>
+        <v>70.90191620404987</v>
       </c>
       <c r="C247" t="n">
-        <v>40.57897559548935</v>
+        <v>70.98873890207231</v>
       </c>
       <c r="D247" t="n">
-        <v>-0.03429361969966749</v>
+        <v>-0.08682269802244491</v>
       </c>
     </row>
     <row r="248">
@@ -3899,13 +3899,13 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>40.5560667750195</v>
+        <v>70.90923519107932</v>
       </c>
       <c r="C248" t="n">
-        <v>40.55646213975346</v>
+        <v>71.05250849313155</v>
       </c>
       <c r="D248" t="n">
-        <v>-0.0003953647339685062</v>
+        <v>-0.1432733020522363</v>
       </c>
     </row>
     <row r="249">
@@ -3913,13 +3913,13 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>40.56554250700095</v>
+        <v>70.925234315601</v>
       </c>
       <c r="C249" t="n">
-        <v>40.67401714435671</v>
+        <v>70.94921988442881</v>
       </c>
       <c r="D249" t="n">
-        <v>-0.1084746373557621</v>
+        <v>-0.02398556882781122</v>
       </c>
     </row>
     <row r="250">
@@ -3927,13 +3927,13 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>40.57094809014811</v>
+        <v>70.94640540453075</v>
       </c>
       <c r="C250" t="n">
-        <v>40.62480174092352</v>
+        <v>71.0525366658873</v>
       </c>
       <c r="D250" t="n">
-        <v>-0.05385365077540882</v>
+        <v>-0.1061312613565519</v>
       </c>
     </row>
     <row r="251">
@@ -3941,13 +3941,13 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>40.58436064411148</v>
+        <v>70.95379197997576</v>
       </c>
       <c r="C251" t="n">
-        <v>40.6636787982837</v>
+        <v>71.04978888458368</v>
       </c>
       <c r="D251" t="n">
-        <v>-0.07931815417222055</v>
+        <v>-0.09599690460791521</v>
       </c>
     </row>
     <row r="252">
@@ -3955,13 +3955,13 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>40.58544750487562</v>
+        <v>70.95675530236701</v>
       </c>
       <c r="C252" t="n">
-        <v>40.66207420161687</v>
+        <v>71.03091268496763</v>
       </c>
       <c r="D252" t="n">
-        <v>-0.07662669674125766</v>
+        <v>-0.07415738260061744</v>
       </c>
     </row>
     <row r="253">
@@ -3969,13 +3969,13 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>40.60446068671669</v>
+        <v>70.96436508876504</v>
       </c>
       <c r="C253" t="n">
-        <v>40.72597087725335</v>
+        <v>70.97845072033178</v>
       </c>
       <c r="D253" t="n">
-        <v>-0.1215101905366538</v>
+        <v>-0.01408563156674347</v>
       </c>
     </row>
     <row r="254">
@@ -3983,13 +3983,13 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>40.64417064257179</v>
+        <v>70.98275289793591</v>
       </c>
       <c r="C254" t="n">
-        <v>40.64941186386963</v>
+        <v>71.04904878906355</v>
       </c>
       <c r="D254" t="n">
-        <v>-0.005241221297836773</v>
+        <v>-0.06629589112763767</v>
       </c>
     </row>
     <row r="255">
@@ -3997,13 +3997,13 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>40.85235681437132</v>
+        <v>70.99082034896553</v>
       </c>
       <c r="C255" t="n">
-        <v>40.67689892017971</v>
+        <v>71.06048048829435</v>
       </c>
       <c r="D255" t="n">
-        <v>0.1754578941916094</v>
+        <v>-0.06966013932881765</v>
       </c>
     </row>
     <row r="256">
@@ -4011,13 +4011,13 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>44.97445987279169</v>
+        <v>70.99358609733392</v>
       </c>
       <c r="C256" t="n">
-        <v>45.04574695512545</v>
+        <v>71.02053799042798</v>
       </c>
       <c r="D256" t="n">
-        <v>-0.07128708233376102</v>
+        <v>-0.02695189309406487</v>
       </c>
     </row>
     <row r="257">
@@ -4025,13 +4025,13 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>44.9847052713594</v>
+        <v>71.00669629517439</v>
       </c>
       <c r="C257" t="n">
-        <v>45.02483644388388</v>
+        <v>71.05370929401454</v>
       </c>
       <c r="D257" t="n">
-        <v>-0.0401311725244895</v>
+        <v>-0.04701299884014531</v>
       </c>
     </row>
     <row r="258">
@@ -4039,13 +4039,13 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>44.99339563062821</v>
+        <v>71.0222425771406</v>
       </c>
       <c r="C258" t="n">
-        <v>45.06862636997104</v>
+        <v>71.02531981840993</v>
       </c>
       <c r="D258" t="n">
-        <v>-0.0752307393428282</v>
+        <v>-0.003077241269323849</v>
       </c>
     </row>
     <row r="259">
@@ -4053,13 +4053,13 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>45.03277925914532</v>
+        <v>71.02746327636247</v>
       </c>
       <c r="C259" t="n">
-        <v>45.09885460895399</v>
+        <v>71.03761950367603</v>
       </c>
       <c r="D259" t="n">
-        <v>-0.06607534980867058</v>
+        <v>-0.01015622731355847</v>
       </c>
     </row>
     <row r="260">
@@ -4067,13 +4067,13 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>45.03593835105222</v>
+        <v>71.05090656537044</v>
       </c>
       <c r="C260" t="n">
-        <v>45.11723574059959</v>
+        <v>71.0583476911534</v>
       </c>
       <c r="D260" t="n">
-        <v>-0.08129738954736609</v>
+        <v>-0.007441125782960967</v>
       </c>
     </row>
     <row r="261">
@@ -4081,13 +4081,13 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>45.06442296821623</v>
+        <v>72.41224651024963</v>
       </c>
       <c r="C261" t="n">
-        <v>45.09537380099131</v>
+        <v>72.42930078184206</v>
       </c>
       <c r="D261" t="n">
-        <v>-0.03095083277508337</v>
+        <v>-0.01705427159242845</v>
       </c>
     </row>
     <row r="262">
@@ -4095,13 +4095,13 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>45.10698898833007</v>
+        <v>72.42659018209494</v>
       </c>
       <c r="C262" t="n">
-        <v>45.12332126834274</v>
+        <v>72.49530665435337</v>
       </c>
       <c r="D262" t="n">
-        <v>-0.01633228001266929</v>
+        <v>-0.06871647225842992</v>
       </c>
     </row>
     <row r="263">
@@ -4109,13 +4109,13 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>47.01182800526546</v>
+        <v>72.44608467981912</v>
       </c>
       <c r="C263" t="n">
-        <v>47.01631296556543</v>
+        <v>72.52463064459347</v>
       </c>
       <c r="D263" t="n">
-        <v>-0.004484960299976137</v>
+        <v>-0.07854596477434939</v>
       </c>
     </row>
     <row r="264">
@@ -4123,13 +4123,13 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>47.05774111690698</v>
+        <v>72.45948371742766</v>
       </c>
       <c r="C264" t="n">
-        <v>47.17704067802821</v>
+        <v>72.55783817599804</v>
       </c>
       <c r="D264" t="n">
-        <v>-0.1192995611212311</v>
+        <v>-0.09835445857038394</v>
       </c>
     </row>
     <row r="265">
@@ -4137,13 +4137,13 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>47.06708405177613</v>
+        <v>72.46640992221448</v>
       </c>
       <c r="C265" t="n">
-        <v>47.15231417997492</v>
+        <v>72.52793870771887</v>
       </c>
       <c r="D265" t="n">
-        <v>-0.08523012819879483</v>
+        <v>-0.06152878550439311</v>
       </c>
     </row>
     <row r="266">
@@ -4151,13 +4151,13 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>47.08140824538617</v>
+        <v>72.47140752845378</v>
       </c>
       <c r="C266" t="n">
-        <v>47.17004506654367</v>
+        <v>72.48484715105378</v>
       </c>
       <c r="D266" t="n">
-        <v>-0.08863682115750038</v>
+        <v>-0.01343962260000353</v>
       </c>
     </row>
     <row r="267">
@@ -4165,13 +4165,13 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>47.08817713296133</v>
+        <v>72.47901400898962</v>
       </c>
       <c r="C267" t="n">
-        <v>47.21107680619257</v>
+        <v>72.48268414663067</v>
       </c>
       <c r="D267" t="n">
-        <v>-0.1228996732312311</v>
+        <v>-0.003670137641051952</v>
       </c>
     </row>
     <row r="268">
@@ -4179,13 +4179,13 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>47.0912125362356</v>
+        <v>72.49379668218887</v>
       </c>
       <c r="C268" t="n">
-        <v>47.09460289707096</v>
+        <v>72.54619045873802</v>
       </c>
       <c r="D268" t="n">
-        <v>-0.003390360835368256</v>
+        <v>-0.05239377654915245</v>
       </c>
     </row>
     <row r="269">
@@ -4193,13 +4193,13 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>47.13534784879469</v>
+        <v>72.50304678472618</v>
       </c>
       <c r="C269" t="n">
-        <v>47.14373607516669</v>
+        <v>72.54493103256881</v>
       </c>
       <c r="D269" t="n">
-        <v>-0.008388226372005647</v>
+        <v>-0.04188424784263134</v>
       </c>
     </row>
     <row r="270">
@@ -4207,13 +4207,13 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>48.05369935331418</v>
+        <v>72.5091260642769</v>
       </c>
       <c r="C270" t="n">
-        <v>48.0543250146394</v>
+        <v>72.54768173465466</v>
       </c>
       <c r="D270" t="n">
-        <v>-0.0006256613252233478</v>
+        <v>-0.03855567037776098</v>
       </c>
     </row>
     <row r="271">
@@ -4221,13 +4221,13 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>48.07163099267375</v>
+        <v>72.55116917790821</v>
       </c>
       <c r="C271" t="n">
-        <v>48.15453958367267</v>
+        <v>72.55563398902375</v>
       </c>
       <c r="D271" t="n">
-        <v>-0.0829085909989189</v>
+        <v>-0.004464811115539646</v>
       </c>
     </row>
     <row r="272">
@@ -4235,13 +4235,13 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>48.11360946963526</v>
+        <v>72.62493472561331</v>
       </c>
       <c r="C272" t="n">
-        <v>48.13123672098349</v>
+        <v>72.56043177223393</v>
       </c>
       <c r="D272" t="n">
-        <v>-0.01762725134823029</v>
+        <v>0.06450295337938883</v>
       </c>
     </row>
     <row r="273">
@@ -4249,13 +4249,13 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>48.11668418470779</v>
+        <v>77.19908838582306</v>
       </c>
       <c r="C273" t="n">
-        <v>48.17275864213443</v>
+        <v>77.37124665189748</v>
       </c>
       <c r="D273" t="n">
-        <v>-0.05607445742663941</v>
+        <v>-0.172158266074419</v>
       </c>
     </row>
     <row r="274">
@@ -4263,13 +4263,13 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>48.13346952851805</v>
+        <v>77.20964775894383</v>
       </c>
       <c r="C274" t="n">
-        <v>48.17982617452439</v>
+        <v>77.23061479378273</v>
       </c>
       <c r="D274" t="n">
-        <v>-0.0463566460063447</v>
+        <v>-0.02096703483890394</v>
       </c>
     </row>
     <row r="275">
@@ -4277,13 +4277,13 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>48.67106640306799</v>
+        <v>77.23093497006111</v>
       </c>
       <c r="C275" t="n">
-        <v>48.77811422116221</v>
+        <v>77.3524319643771</v>
       </c>
       <c r="D275" t="n">
-        <v>-0.107047818094216</v>
+        <v>-0.12149699431599</v>
       </c>
     </row>
     <row r="276">
@@ -4291,13 +4291,13 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>48.68742868983858</v>
+        <v>77.23935461168189</v>
       </c>
       <c r="C276" t="n">
-        <v>48.70956049056137</v>
+        <v>77.246534594663</v>
       </c>
       <c r="D276" t="n">
-        <v>-0.0221318007227822</v>
+        <v>-0.007179982981114108</v>
       </c>
     </row>
     <row r="277">
@@ -4305,13 +4305,13 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>48.76308079737653</v>
+        <v>77.24448305608036</v>
       </c>
       <c r="C277" t="n">
-        <v>48.83504413089135</v>
+        <v>77.28852331463847</v>
       </c>
       <c r="D277" t="n">
-        <v>-0.07196333351481599</v>
+        <v>-0.04404025855811255</v>
       </c>
     </row>
     <row r="278">
@@ -4319,13 +4319,13 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>48.77917189647974</v>
+        <v>77.2480622851046</v>
       </c>
       <c r="C278" t="n">
-        <v>48.81226854727311</v>
+        <v>77.3065601395585</v>
       </c>
       <c r="D278" t="n">
-        <v>-0.0330966507933681</v>
+        <v>-0.0584978544539041</v>
       </c>
     </row>
     <row r="279">
@@ -4333,13 +4333,13 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>48.78241303664402</v>
+        <v>77.25528540415742</v>
       </c>
       <c r="C279" t="n">
-        <v>48.78732573171055</v>
+        <v>77.32678104629153</v>
       </c>
       <c r="D279" t="n">
-        <v>-0.004912695066536799</v>
+        <v>-0.07149564213410997</v>
       </c>
     </row>
     <row r="280">
@@ -4347,13 +4347,13 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>48.78287235027241</v>
+        <v>77.2559231282591</v>
       </c>
       <c r="C280" t="n">
-        <v>48.78488730703566</v>
+        <v>77.37320337868404</v>
       </c>
       <c r="D280" t="n">
-        <v>-0.002014956763254361</v>
+        <v>-0.1172802504249404</v>
       </c>
     </row>
     <row r="281">
@@ -4361,13 +4361,13 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>48.79272967598677</v>
+        <v>77.26955607505859</v>
       </c>
       <c r="C281" t="n">
-        <v>48.80494802614749</v>
+        <v>77.36784718870395</v>
       </c>
       <c r="D281" t="n">
-        <v>-0.01221835016072248</v>
+        <v>-0.09829111364535947</v>
       </c>
     </row>
     <row r="282">
@@ -4375,13 +4375,13 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>48.81539649671159</v>
+        <v>77.29482914732654</v>
       </c>
       <c r="C282" t="n">
-        <v>48.94146452370722</v>
+        <v>77.35829945246822</v>
       </c>
       <c r="D282" t="n">
-        <v>-0.1260680269956325</v>
+        <v>-0.06347030514167784</v>
       </c>
     </row>
     <row r="283">
@@ -4389,13 +4389,13 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>48.81659632984632</v>
+        <v>77.29663143609318</v>
       </c>
       <c r="C283" t="n">
-        <v>48.85828448089423</v>
+        <v>77.32770080704194</v>
       </c>
       <c r="D283" t="n">
-        <v>-0.04168815104791435</v>
+        <v>-0.03106937094875661</v>
       </c>
     </row>
     <row r="284">
@@ -4403,13 +4403,13 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>48.83652183178739</v>
+        <v>77.31426880502674</v>
       </c>
       <c r="C284" t="n">
-        <v>48.86956232024167</v>
+        <v>77.32668822946032</v>
       </c>
       <c r="D284" t="n">
-        <v>-0.03304048845428298</v>
+        <v>-0.01241942443357402</v>
       </c>
     </row>
     <row r="285">
@@ -4417,13 +4417,13 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>48.88112175242811</v>
+        <v>77.31589119324607</v>
       </c>
       <c r="C285" t="n">
-        <v>48.92599588402067</v>
+        <v>77.38077941621872</v>
       </c>
       <c r="D285" t="n">
-        <v>-0.04487413159255738</v>
+        <v>-0.06488822297264107</v>
       </c>
     </row>
     <row r="286">
@@ -4431,13 +4431,13 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>48.88433721691626</v>
+        <v>77.32733598399014</v>
       </c>
       <c r="C286" t="n">
-        <v>48.89162138434635</v>
+        <v>77.4543843565032</v>
       </c>
       <c r="D286" t="n">
-        <v>-0.007284167430093191</v>
+        <v>-0.1270483725130589</v>
       </c>
     </row>
     <row r="287">
@@ -4445,13 +4445,13 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>48.90071370956619</v>
+        <v>77.32968939868557</v>
       </c>
       <c r="C287" t="n">
-        <v>48.9303269735361</v>
+        <v>77.33186146529391</v>
       </c>
       <c r="D287" t="n">
-        <v>-0.02961326396991382</v>
+        <v>-0.002172066608338241</v>
       </c>
     </row>
     <row r="288">
@@ -4459,13 +4459,13 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>48.91333912531012</v>
+        <v>77.33860817064871</v>
       </c>
       <c r="C288" t="n">
-        <v>48.9225249193527</v>
+        <v>77.41778471559731</v>
       </c>
       <c r="D288" t="n">
-        <v>-0.009185794042579687</v>
+        <v>-0.07917654494859505</v>
       </c>
     </row>
     <row r="289">
@@ -4473,13 +4473,13 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>48.92083188767445</v>
+        <v>77.34336286177258</v>
       </c>
       <c r="C289" t="n">
-        <v>48.98361522107842</v>
+        <v>77.44149798946408</v>
       </c>
       <c r="D289" t="n">
-        <v>-0.06278333340396358</v>
+        <v>-0.09813512769150634</v>
       </c>
     </row>
     <row r="290">
@@ -4487,13 +4487,13 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>48.92247953687598</v>
+        <v>77.34423913634173</v>
       </c>
       <c r="C290" t="n">
-        <v>48.97654597560848</v>
+        <v>77.35354938581575</v>
       </c>
       <c r="D290" t="n">
-        <v>-0.05406643873249806</v>
+        <v>-0.009310249474026477</v>
       </c>
     </row>
     <row r="291">
@@ -4501,13 +4501,13 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>48.93544551505969</v>
+        <v>77.34702824891862</v>
       </c>
       <c r="C291" t="n">
-        <v>48.98581545524198</v>
+        <v>77.36380641059213</v>
       </c>
       <c r="D291" t="n">
-        <v>-0.05036994018229279</v>
+        <v>-0.01677816167351409</v>
       </c>
     </row>
     <row r="292">
@@ -4515,13 +4515,13 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>48.94121685002051</v>
+        <v>77.36107431449845</v>
       </c>
       <c r="C292" t="n">
-        <v>48.95564621164172</v>
+        <v>77.36225322276292</v>
       </c>
       <c r="D292" t="n">
-        <v>-0.014429361621211</v>
+        <v>-0.001178908264463985</v>
       </c>
     </row>
     <row r="293">
@@ -4529,13 +4529,13 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>48.97067663905892</v>
+        <v>77.3637146307134</v>
       </c>
       <c r="C293" t="n">
-        <v>48.97144442758666</v>
+        <v>77.42599815899025</v>
       </c>
       <c r="D293" t="n">
-        <v>-0.0007677885277388441</v>
+        <v>-0.06228352827685057</v>
       </c>
     </row>
     <row r="294">
@@ -4543,13 +4543,13 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>49.00022674586521</v>
+        <v>77.37052763929195</v>
       </c>
       <c r="C294" t="n">
-        <v>48.7983212879621</v>
+        <v>77.39790591778899</v>
       </c>
       <c r="D294" t="n">
-        <v>0.2019054579031163</v>
+        <v>-0.02737827849703933</v>
       </c>
     </row>
     <row r="295">
@@ -4557,13 +4557,13 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>51.02328721479749</v>
+        <v>77.40521667374813</v>
       </c>
       <c r="C295" t="n">
-        <v>51.07626214371545</v>
+        <v>77.44479975575199</v>
       </c>
       <c r="D295" t="n">
-        <v>-0.05297492891796196</v>
+        <v>-0.03958308200385829</v>
       </c>
     </row>
     <row r="296">
@@ -4571,13 +4571,13 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>51.02392613385434</v>
+        <v>77.408643012968</v>
       </c>
       <c r="C296" t="n">
-        <v>51.09240091999698</v>
+        <v>77.46401129814274</v>
       </c>
       <c r="D296" t="n">
-        <v>-0.06847478614263736</v>
+        <v>-0.0553682851747368</v>
       </c>
     </row>
     <row r="297">
@@ -4585,13 +4585,13 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>51.02872523669308</v>
+        <v>77.43956816434813</v>
       </c>
       <c r="C297" t="n">
-        <v>51.08633493879854</v>
+        <v>77.45483057444835</v>
       </c>
       <c r="D297" t="n">
-        <v>-0.05760970210546645</v>
+        <v>-0.01526241010022034</v>
       </c>
     </row>
     <row r="298">
@@ -4599,13 +4599,13 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>51.03068821892185</v>
+        <v>77.64656185487092</v>
       </c>
       <c r="C298" t="n">
-        <v>51.07103502915138</v>
+        <v>77.75103829430047</v>
       </c>
       <c r="D298" t="n">
-        <v>-0.04034681022952924</v>
+        <v>-0.104476439429547</v>
       </c>
     </row>
     <row r="299">
@@ -4613,13 +4613,13 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>51.05245121464419</v>
+        <v>77.68447864565117</v>
       </c>
       <c r="C299" t="n">
-        <v>51.15529596078416</v>
+        <v>77.76676686833615</v>
       </c>
       <c r="D299" t="n">
-        <v>-0.1028447461399722</v>
+        <v>-0.08228822268497993</v>
       </c>
     </row>
     <row r="300">
@@ -4627,13 +4627,13 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>51.05964850921449</v>
+        <v>77.69018713454389</v>
       </c>
       <c r="C300" t="n">
-        <v>51.13716793898247</v>
+        <v>77.79000264329503</v>
       </c>
       <c r="D300" t="n">
-        <v>-0.07751942976798176</v>
+        <v>-0.09981550875113498</v>
       </c>
     </row>
     <row r="301">
@@ -4641,13 +4641,13 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>51.07313920630462</v>
+        <v>77.70614706992932</v>
       </c>
       <c r="C301" t="n">
-        <v>51.16608432257432</v>
+        <v>77.71068474933162</v>
       </c>
       <c r="D301" t="n">
-        <v>-0.09294511626970348</v>
+        <v>-0.004537679402304207</v>
       </c>
     </row>
     <row r="302">
@@ -4655,13 +4655,13 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>51.11121346200416</v>
+        <v>77.71970523348354</v>
       </c>
       <c r="C302" t="n">
-        <v>51.14316170471107</v>
+        <v>77.78879923508815</v>
       </c>
       <c r="D302" t="n">
-        <v>-0.03194824270691043</v>
+        <v>-0.06909400160461132</v>
       </c>
     </row>
     <row r="303">
@@ -4669,13 +4669,13 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>51.11146953229778</v>
+        <v>77.73160083082313</v>
       </c>
       <c r="C303" t="n">
-        <v>51.17270613518961</v>
+        <v>77.73954682671133</v>
       </c>
       <c r="D303" t="n">
-        <v>-0.06123660289183874</v>
+        <v>-0.00794599588820688</v>
       </c>
     </row>
     <row r="304">
@@ -4683,13 +4683,13 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>51.11683364829937</v>
+        <v>77.75779077020172</v>
       </c>
       <c r="C304" t="n">
-        <v>51.21387489815431</v>
+        <v>77.78070727530535</v>
       </c>
       <c r="D304" t="n">
-        <v>-0.09704124985493934</v>
+        <v>-0.02291650510362331</v>
       </c>
     </row>
     <row r="305">
@@ -4697,13 +4697,13 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>51.12453699515051</v>
+        <v>82.97519845047354</v>
       </c>
       <c r="C305" t="n">
-        <v>51.17776664256088</v>
+        <v>83.05832755978878</v>
       </c>
       <c r="D305" t="n">
-        <v>-0.05322964741036174</v>
+        <v>-0.08312910931523732</v>
       </c>
     </row>
     <row r="306">
@@ -4711,13 +4711,13 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>51.15302741802876</v>
+        <v>82.97744133672573</v>
       </c>
       <c r="C306" t="n">
-        <v>51.16075024596849</v>
+        <v>83.04496503190032</v>
       </c>
       <c r="D306" t="n">
-        <v>-0.007722827939723231</v>
+        <v>-0.0675236951745859</v>
       </c>
     </row>
     <row r="307">
@@ -4725,13 +4725,13 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>51.18767225893927</v>
+        <v>82.99301621054559</v>
       </c>
       <c r="C307" t="n">
-        <v>51.19030503588188</v>
+        <v>83.0113347405171</v>
       </c>
       <c r="D307" t="n">
-        <v>-0.00263277694261177</v>
+        <v>-0.01831852997150918</v>
       </c>
     </row>
     <row r="308">
@@ -4739,13 +4739,13 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>51.24091434062171</v>
+        <v>82.99467455046874</v>
       </c>
       <c r="C308" t="n">
-        <v>51.21909076155196</v>
+        <v>83.09165527142839</v>
       </c>
       <c r="D308" t="n">
-        <v>0.0218235790697463</v>
+        <v>-0.0969807209596496</v>
       </c>
     </row>
     <row r="309">
@@ -4753,13 +4753,13 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>55.44532136864397</v>
+        <v>82.99979569610048</v>
       </c>
       <c r="C309" t="n">
-        <v>55.60665877348239</v>
+        <v>83.00621892840613</v>
       </c>
       <c r="D309" t="n">
-        <v>-0.1613374048384202</v>
+        <v>-0.006423232305650117</v>
       </c>
     </row>
     <row r="310">
@@ -4767,13 +4767,13 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>55.44615517601166</v>
+        <v>83.00222862143464</v>
       </c>
       <c r="C310" t="n">
-        <v>55.52034104043975</v>
+        <v>83.03618060249531</v>
       </c>
       <c r="D310" t="n">
-        <v>-0.07418586442808817</v>
+        <v>-0.03395198106066744</v>
       </c>
     </row>
     <row r="311">
@@ -4781,13 +4781,13 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>55.47534028994227</v>
+        <v>83.01770833037216</v>
       </c>
       <c r="C311" t="n">
-        <v>55.55799263398958</v>
+        <v>83.08252587550209</v>
       </c>
       <c r="D311" t="n">
-        <v>-0.08265234404731103</v>
+        <v>-0.06481754512992666</v>
       </c>
     </row>
     <row r="312">
@@ -4795,13 +4795,13 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>55.51999237911362</v>
+        <v>83.04079705345688</v>
       </c>
       <c r="C312" t="n">
-        <v>55.55375174715967</v>
+        <v>83.09257190077513</v>
       </c>
       <c r="D312" t="n">
-        <v>-0.03375936804604862</v>
+        <v>-0.05177484731824222</v>
       </c>
     </row>
     <row r="313">
@@ -4809,13 +4809,13 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>55.53146806513788</v>
+        <v>83.06741375479658</v>
       </c>
       <c r="C313" t="n">
-        <v>55.64631791549036</v>
+        <v>83.07249502449412</v>
       </c>
       <c r="D313" t="n">
-        <v>-0.1148498503524849</v>
+        <v>-0.005081269697541302</v>
       </c>
     </row>
     <row r="314">
@@ -4823,13 +4823,13 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>58.29046241937701</v>
+        <v>83.24852537048868</v>
       </c>
       <c r="C314" t="n">
-        <v>58.37262479981634</v>
+        <v>83.01198858073914</v>
       </c>
       <c r="D314" t="n">
-        <v>-0.08216238043933544</v>
+        <v>0.2365367897495361</v>
       </c>
     </row>
     <row r="315">
@@ -4837,13 +4837,13 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>58.29458819911272</v>
+        <v>84.26599591879929</v>
       </c>
       <c r="C315" t="n">
-        <v>58.32843431792146</v>
+        <v>84.32152268585016</v>
       </c>
       <c r="D315" t="n">
-        <v>-0.03384611880873223</v>
+        <v>-0.05552676705086412</v>
       </c>
     </row>
     <row r="316">
@@ -4851,13 +4851,13 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>58.31140669200474</v>
+        <v>84.27695674674989</v>
       </c>
       <c r="C316" t="n">
-        <v>58.37280710859077</v>
+        <v>84.28351477085837</v>
       </c>
       <c r="D316" t="n">
-        <v>-0.06140041658602513</v>
+        <v>-0.006558024108485938</v>
       </c>
     </row>
     <row r="317">
@@ -4865,13 +4865,13 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>58.31913695718683</v>
+        <v>84.28428778368703</v>
       </c>
       <c r="C317" t="n">
-        <v>58.35099184120309</v>
+        <v>84.30441726942352</v>
       </c>
       <c r="D317" t="n">
-        <v>-0.03185488401625491</v>
+        <v>-0.02012948573648998</v>
       </c>
     </row>
     <row r="318">
@@ -4879,13 +4879,13 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>58.35299268759052</v>
+        <v>84.30290619884269</v>
       </c>
       <c r="C318" t="n">
-        <v>58.3955665457784</v>
+        <v>84.32201886573169</v>
       </c>
       <c r="D318" t="n">
-        <v>-0.04257385818787895</v>
+        <v>-0.01911266688900071</v>
       </c>
     </row>
     <row r="319">
@@ -4893,13 +4893,13 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>61.4271465405195</v>
+        <v>84.31402181283002</v>
       </c>
       <c r="C319" t="n">
-        <v>61.52045366263258</v>
+        <v>84.39512021524212</v>
       </c>
       <c r="D319" t="n">
-        <v>-0.09330712211307457</v>
+        <v>-0.08109840241209554</v>
       </c>
     </row>
     <row r="320">
@@ -4907,13 +4907,13 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>61.43883609309671</v>
+        <v>84.32732796104683</v>
       </c>
       <c r="C320" t="n">
-        <v>61.62549624949789</v>
+        <v>84.36924868931129</v>
       </c>
       <c r="D320" t="n">
-        <v>-0.1866601564011745</v>
+        <v>-0.04192072826445781</v>
       </c>
     </row>
     <row r="321">
@@ -4921,13 +4921,13 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>61.44401718399626</v>
+        <v>84.3530685895562</v>
       </c>
       <c r="C321" t="n">
-        <v>61.61245607299084</v>
+        <v>84.37344012733992</v>
       </c>
       <c r="D321" t="n">
-        <v>-0.1684388889945794</v>
+        <v>-0.02037153778371703</v>
       </c>
     </row>
     <row r="322">
@@ -4935,13 +4935,13 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>61.45738179985466</v>
+        <v>84.3566433231066</v>
       </c>
       <c r="C322" t="n">
-        <v>61.62748800320505</v>
+        <v>84.39683177297051</v>
       </c>
       <c r="D322" t="n">
-        <v>-0.1701062033503931</v>
+        <v>-0.04018844986391912</v>
       </c>
     </row>
     <row r="323">
@@ -4949,13 +4949,13 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>61.46839672599196</v>
+        <v>84.37001034075944</v>
       </c>
       <c r="C323" t="n">
-        <v>61.55327933590657</v>
+        <v>84.31931255168347</v>
       </c>
       <c r="D323" t="n">
-        <v>-0.08488260991461516</v>
+        <v>0.05069778907596856</v>
       </c>
     </row>
     <row r="324">
@@ -4963,13 +4963,13 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>61.47563492982139</v>
+        <v>84.37743425035883</v>
       </c>
       <c r="C324" t="n">
-        <v>61.6307222487054</v>
+        <v>84.40395893876591</v>
       </c>
       <c r="D324" t="n">
-        <v>-0.1550873188840072</v>
+        <v>-0.02652468840707911</v>
       </c>
     </row>
     <row r="325">
@@ -4977,13 +4977,13 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>61.4832942296721</v>
+        <v>84.38306509107504</v>
       </c>
       <c r="C325" t="n">
-        <v>61.60231225137036</v>
+        <v>84.4055198445124</v>
       </c>
       <c r="D325" t="n">
-        <v>-0.1190180216982597</v>
+        <v>-0.02245475343735848</v>
       </c>
     </row>
     <row r="326">
@@ -4991,13 +4991,13 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>61.51455116727376</v>
+        <v>84.65802534020365</v>
       </c>
       <c r="C326" t="n">
-        <v>61.57529893237863</v>
+        <v>84.38318278420279</v>
       </c>
       <c r="D326" t="n">
-        <v>-0.06074776510487112</v>
+        <v>0.2748425560008627</v>
       </c>
     </row>
     <row r="327">
@@ -5005,13 +5005,13 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>61.54067199111952</v>
+        <v>87.3945164895097</v>
       </c>
       <c r="C327" t="n">
-        <v>61.62700792525991</v>
+        <v>87.41911787467502</v>
       </c>
       <c r="D327" t="n">
-        <v>-0.08633593414038643</v>
+        <v>-0.02460138516532595</v>
       </c>
     </row>
     <row r="328">
@@ -5019,13 +5019,13 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>61.55792326521372</v>
+        <v>87.40102241804215</v>
       </c>
       <c r="C328" t="n">
-        <v>61.62466103066554</v>
+        <v>87.47112356008741</v>
       </c>
       <c r="D328" t="n">
-        <v>-0.06673776545182619</v>
+        <v>-0.07010114204526019</v>
       </c>
     </row>
     <row r="329">
@@ -5033,13 +5033,13 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>61.57536084665276</v>
+        <v>87.41360372121729</v>
       </c>
       <c r="C329" t="n">
-        <v>61.61808710965719</v>
+        <v>87.4155258844502</v>
       </c>
       <c r="D329" t="n">
-        <v>-0.04272626300442539</v>
+        <v>-0.001922163232919161</v>
       </c>
     </row>
     <row r="330">
@@ -5047,13 +5047,13 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>61.57546889898892</v>
+        <v>87.41410833319179</v>
       </c>
       <c r="C330" t="n">
-        <v>61.58712827413655</v>
+        <v>87.51564054274519</v>
       </c>
       <c r="D330" t="n">
-        <v>-0.01165937514762305</v>
+        <v>-0.1015322095533975</v>
       </c>
     </row>
     <row r="331">
@@ -5061,13 +5061,13 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>61.68577282950059</v>
+        <v>87.42003940116567</v>
       </c>
       <c r="C331" t="n">
-        <v>61.54801711465313</v>
+        <v>87.49772373602944</v>
       </c>
       <c r="D331" t="n">
-        <v>0.1377557148474651</v>
+        <v>-0.07768433486377546</v>
       </c>
     </row>
     <row r="332">
@@ -5075,13 +5075,13 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>62.05586710195617</v>
+        <v>87.46169728502684</v>
       </c>
       <c r="C332" t="n">
-        <v>62.06144789712828</v>
+        <v>87.51807725162303</v>
       </c>
       <c r="D332" t="n">
-        <v>-0.005580795172107855</v>
+        <v>-0.05637996659618238</v>
       </c>
     </row>
     <row r="333">
@@ -5089,13 +5089,13 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>62.06189439366096</v>
+        <v>87.47032996916781</v>
       </c>
       <c r="C333" t="n">
-        <v>62.16810766627766</v>
+        <v>87.4805644830621</v>
       </c>
       <c r="D333" t="n">
-        <v>-0.1062132726166922</v>
+        <v>-0.01023451389428942</v>
       </c>
     </row>
     <row r="334">
@@ -5103,13 +5103,13 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>62.06616024701034</v>
+        <v>87.47326438757</v>
       </c>
       <c r="C334" t="n">
-        <v>62.20664598448251</v>
+        <v>87.52210889912524</v>
       </c>
       <c r="D334" t="n">
-        <v>-0.1404857374721686</v>
+        <v>-0.04884451155524516</v>
       </c>
     </row>
     <row r="335">
@@ -5117,13 +5117,13 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>62.07778467810373</v>
+        <v>87.48389877156282</v>
       </c>
       <c r="C335" t="n">
-        <v>62.07870726383083</v>
+        <v>87.48954324440699</v>
       </c>
       <c r="D335" t="n">
-        <v>-0.0009225857271033533</v>
+        <v>-0.005644472844167581</v>
       </c>
     </row>
     <row r="336">
@@ -5131,13 +5131,13 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>62.08328703344926</v>
+        <v>87.50960349355249</v>
       </c>
       <c r="C336" t="n">
-        <v>62.2609160531624</v>
+        <v>87.51118227002274</v>
       </c>
       <c r="D336" t="n">
-        <v>-0.1776290197131445</v>
+        <v>-0.001578776470253729</v>
       </c>
     </row>
     <row r="337">
@@ -5145,13 +5145,13 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>62.09675706893294</v>
+        <v>87.67977659055087</v>
       </c>
       <c r="C337" t="n">
-        <v>62.15711921021006</v>
+        <v>87.44604229519759</v>
       </c>
       <c r="D337" t="n">
-        <v>-0.06036214127711759</v>
+        <v>0.2337342953532868</v>
       </c>
     </row>
     <row r="338">
@@ -5159,13 +5159,13 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>62.14094799524877</v>
+        <v>94.1732880729115</v>
       </c>
       <c r="C338" t="n">
-        <v>62.26077657454774</v>
+        <v>94.20811294104591</v>
       </c>
       <c r="D338" t="n">
-        <v>-0.1198285792989751</v>
+        <v>-0.03482486813440744</v>
       </c>
     </row>
     <row r="339">
@@ -5173,13 +5173,13 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>62.15385261213292</v>
+        <v>94.20104784856889</v>
       </c>
       <c r="C339" t="n">
-        <v>62.24351693776936</v>
+        <v>94.31491562683912</v>
       </c>
       <c r="D339" t="n">
-        <v>-0.08966432563643423</v>
+        <v>-0.1138677782702331</v>
       </c>
     </row>
     <row r="340">
@@ -5187,13 +5187,13 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>62.83745412729546</v>
+        <v>94.20574608813205</v>
       </c>
       <c r="C340" t="n">
-        <v>62.23494950347811</v>
+        <v>94.21509014199073</v>
       </c>
       <c r="D340" t="n">
-        <v>0.602504623817353</v>
+        <v>-0.00934405385868331</v>
       </c>
     </row>
     <row r="341">
@@ -5201,13 +5201,13 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>65.53267748546655</v>
+        <v>94.21760221389644</v>
       </c>
       <c r="C341" t="n">
-        <v>65.55110384190817</v>
+        <v>94.24834382090215</v>
       </c>
       <c r="D341" t="n">
-        <v>-0.01842635644162272</v>
+        <v>-0.03074160700570872</v>
       </c>
     </row>
     <row r="342">
@@ -5215,13 +5215,13 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>65.54439211869021</v>
+        <v>94.22198810645206</v>
       </c>
       <c r="C342" t="n">
-        <v>65.64030400078261</v>
+        <v>94.30271151771355</v>
       </c>
       <c r="D342" t="n">
-        <v>-0.09591188209239476</v>
+        <v>-0.08072341126148785</v>
       </c>
     </row>
     <row r="343">
@@ -5229,13 +5229,13 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>65.56200488200741</v>
+        <v>94.25429224752486</v>
       </c>
       <c r="C343" t="n">
-        <v>65.6305044040227</v>
+        <v>94.27473623750598</v>
       </c>
       <c r="D343" t="n">
-        <v>-0.06849952201528708</v>
+        <v>-0.02044398998111774</v>
       </c>
     </row>
     <row r="344">
@@ -5243,13 +5243,13 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>65.56884480983497</v>
+        <v>94.3201669467104</v>
       </c>
       <c r="C344" t="n">
-        <v>65.73112373022374</v>
+        <v>94.29878009214103</v>
       </c>
       <c r="D344" t="n">
-        <v>-0.162278920388772</v>
+        <v>0.02138685456937139</v>
       </c>
     </row>
     <row r="345">
@@ -5257,13 +5257,13 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>65.60215233383714</v>
+        <v>94.79699174739017</v>
       </c>
       <c r="C345" t="n">
-        <v>65.7371309466631</v>
+        <v>94.96820724952531</v>
       </c>
       <c r="D345" t="n">
-        <v>-0.1349786128259609</v>
+        <v>-0.1712155021351407</v>
       </c>
     </row>
     <row r="346">
@@ -5271,13 +5271,13 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>65.64526245487998</v>
+        <v>94.84288298425327</v>
       </c>
       <c r="C346" t="n">
-        <v>65.72049436882489</v>
+        <v>94.90979776648322</v>
       </c>
       <c r="D346" t="n">
-        <v>-0.07523191394490425</v>
+        <v>-0.06691478222995784</v>
       </c>
     </row>
     <row r="347">
@@ -5285,13 +5285,13 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>65.70851771331297</v>
+        <v>94.84369421035582</v>
       </c>
       <c r="C347" t="n">
-        <v>65.74245707387709</v>
+        <v>94.87426686601866</v>
       </c>
       <c r="D347" t="n">
-        <v>-0.03393936056411917</v>
+        <v>-0.03057265566283718</v>
       </c>
     </row>
     <row r="348">
@@ -5299,13 +5299,13 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>65.89239245838544</v>
+        <v>94.85364161647355</v>
       </c>
       <c r="C348" t="n">
-        <v>66.06208674932334</v>
+        <v>94.9612159797683</v>
       </c>
       <c r="D348" t="n">
-        <v>-0.1696942909378976</v>
+        <v>-0.107574363294745</v>
       </c>
     </row>
     <row r="349">
@@ -5313,13 +5313,13 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>65.8950292835768</v>
+        <v>94.85496232186486</v>
       </c>
       <c r="C349" t="n">
-        <v>66.09205262384614</v>
+        <v>94.88520067356895</v>
       </c>
       <c r="D349" t="n">
-        <v>-0.1970233402693395</v>
+        <v>-0.03023835170408518</v>
       </c>
     </row>
     <row r="350">
@@ -5327,13 +5327,13 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>65.90631216750553</v>
+        <v>94.87027089824355</v>
       </c>
       <c r="C350" t="n">
-        <v>65.99345109099988</v>
+        <v>94.90971195593882</v>
       </c>
       <c r="D350" t="n">
-        <v>-0.08713892349435071</v>
+        <v>-0.03944105769527084</v>
       </c>
     </row>
     <row r="351">
@@ -5341,13 +5341,13 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>65.9344921226532</v>
+        <v>94.88600162620753</v>
       </c>
       <c r="C351" t="n">
-        <v>66.07890087067447</v>
+        <v>94.89769610603652</v>
       </c>
       <c r="D351" t="n">
-        <v>-0.1444087480212772</v>
+        <v>-0.0116944798289893</v>
       </c>
     </row>
     <row r="352">
@@ -5355,13 +5355,13 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>65.93780421216512</v>
+        <v>94.88784544454998</v>
       </c>
       <c r="C352" t="n">
-        <v>66.01212857901527</v>
+        <v>94.89155748358021</v>
       </c>
       <c r="D352" t="n">
-        <v>-0.0743243668501492</v>
+        <v>-0.003712039030233427</v>
       </c>
     </row>
     <row r="353">
@@ -5369,13 +5369,13 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>65.94048897410319</v>
+        <v>94.89318007233412</v>
       </c>
       <c r="C353" t="n">
-        <v>65.98799877878145</v>
+        <v>94.96685402333964</v>
       </c>
       <c r="D353" t="n">
-        <v>-0.04750980467825627</v>
+        <v>-0.07367395100551732</v>
       </c>
     </row>
     <row r="354">
@@ -5383,13 +5383,13 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>65.95501121289519</v>
+        <v>94.89912022010715</v>
       </c>
       <c r="C354" t="n">
-        <v>66.04659321639789</v>
+        <v>94.95018945131922</v>
       </c>
       <c r="D354" t="n">
-        <v>-0.09158200350270818</v>
+        <v>-0.05106923121206819</v>
       </c>
     </row>
     <row r="355">
@@ -5397,13 +5397,13 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>65.96173049377553</v>
+        <v>94.93269894673743</v>
       </c>
       <c r="C355" t="n">
-        <v>66.08940991670315</v>
+        <v>94.9587161414028</v>
       </c>
       <c r="D355" t="n">
-        <v>-0.1276794229276135</v>
+        <v>-0.02601719466537133</v>
       </c>
     </row>
     <row r="356">
@@ -5411,13 +5411,13 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>65.96405193954004</v>
+        <v>94.94179021477538</v>
       </c>
       <c r="C356" t="n">
-        <v>66.11162156059171</v>
+        <v>94.94211934350817</v>
       </c>
       <c r="D356" t="n">
-        <v>-0.147569621051673</v>
+        <v>-0.0003291287327868986</v>
       </c>
     </row>
     <row r="357">
@@ -5425,13 +5425,13 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>65.9803952146668</v>
+        <v>96.98326450440899</v>
       </c>
       <c r="C357" t="n">
-        <v>66.06638996352147</v>
+        <v>96.99194357756569</v>
       </c>
       <c r="D357" t="n">
-        <v>-0.08599474885467373</v>
+        <v>-0.008679073156699246</v>
       </c>
     </row>
     <row r="358">
@@ -5439,13 +5439,13 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>66.0523524081101</v>
+        <v>96.98929482276689</v>
       </c>
       <c r="C358" t="n">
-        <v>66.08668692728254</v>
+        <v>97.09991081988323</v>
       </c>
       <c r="D358" t="n">
-        <v>-0.03433451917244668</v>
+        <v>-0.1106159971163407</v>
       </c>
     </row>
     <row r="359">
@@ -5453,13 +5453,13 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>66.06156355664143</v>
+        <v>97.00718374955794</v>
       </c>
       <c r="C359" t="n">
-        <v>66.2551090359966</v>
+        <v>97.1127557390036</v>
       </c>
       <c r="D359" t="n">
-        <v>-0.1935454793551656</v>
+        <v>-0.1055719894456644</v>
       </c>
     </row>
     <row r="360">
@@ -5467,13 +5467,13 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>66.06409565850711</v>
+        <v>97.00899857850568</v>
       </c>
       <c r="C360" t="n">
-        <v>66.11522555953593</v>
+        <v>97.11112450385583</v>
       </c>
       <c r="D360" t="n">
-        <v>-0.05112990102881554</v>
+        <v>-0.1021259253501512</v>
       </c>
     </row>
     <row r="361">
@@ -5481,13 +5481,13 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>66.06614472969281</v>
+        <v>97.01794891088674</v>
       </c>
       <c r="C361" t="n">
-        <v>66.17395193828642</v>
+        <v>97.07004487035</v>
       </c>
       <c r="D361" t="n">
-        <v>-0.1078072085936128</v>
+        <v>-0.05209595946325862</v>
       </c>
     </row>
     <row r="362">
@@ -5495,13 +5495,13 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>66.07303140265836</v>
+        <v>97.02249598735578</v>
       </c>
       <c r="C362" t="n">
-        <v>66.08088155248872</v>
+        <v>97.04051271404747</v>
       </c>
       <c r="D362" t="n">
-        <v>-0.00785014983036092</v>
+        <v>-0.01801672669168397</v>
       </c>
     </row>
     <row r="363">
@@ -5509,13 +5509,13 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>66.07513335945299</v>
+        <v>97.73258553362712</v>
       </c>
       <c r="C363" t="n">
-        <v>66.23148568498119</v>
+        <v>97.76139512452266</v>
       </c>
       <c r="D363" t="n">
-        <v>-0.1563523255282036</v>
+        <v>-0.02880959089554835</v>
       </c>
     </row>
     <row r="364">
@@ -5523,13 +5523,13 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>66.08027881095104</v>
+        <v>97.73651885546498</v>
       </c>
       <c r="C364" t="n">
-        <v>66.23409719706243</v>
+        <v>97.82983041500042</v>
       </c>
       <c r="D364" t="n">
-        <v>-0.1538183861113822</v>
+        <v>-0.09331155953543657</v>
       </c>
     </row>
     <row r="365">
@@ -5537,13 +5537,13 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>66.08343834914616</v>
+        <v>97.74287456560474</v>
       </c>
       <c r="C365" t="n">
-        <v>66.0867398033556</v>
+        <v>97.83554127008857</v>
       </c>
       <c r="D365" t="n">
-        <v>-0.003301454209434951</v>
+        <v>-0.09266670448383252</v>
       </c>
     </row>
     <row r="366">
@@ -5551,13 +5551,13 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>66.08428276051987</v>
+        <v>97.74588582127873</v>
       </c>
       <c r="C366" t="n">
-        <v>66.12985789601396</v>
+        <v>97.79974122392615</v>
       </c>
       <c r="D366" t="n">
-        <v>-0.04557513549409009</v>
+        <v>-0.05385540264741451</v>
       </c>
     </row>
     <row r="367">
@@ -5565,13 +5565,13 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>66.13506529772313</v>
+        <v>97.77320553360686</v>
       </c>
       <c r="C367" t="n">
-        <v>66.24239195264228</v>
+        <v>97.80086032447545</v>
       </c>
       <c r="D367" t="n">
-        <v>-0.1073266549191487</v>
+        <v>-0.02765479086859557</v>
       </c>
     </row>
     <row r="368">
@@ -5579,13 +5579,13 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>66.14240340063704</v>
+        <v>97.82298692056553</v>
       </c>
       <c r="C368" t="n">
-        <v>66.24184103461337</v>
+        <v>97.84478266635826</v>
       </c>
       <c r="D368" t="n">
-        <v>-0.09943763397633631</v>
+        <v>-0.0217957457927298</v>
       </c>
     </row>
     <row r="369">
@@ -5593,13 +5593,13 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>66.15051048409747</v>
+        <v>97.8336238251179</v>
       </c>
       <c r="C369" t="n">
-        <v>66.19996871040638</v>
+        <v>97.87471249557156</v>
       </c>
       <c r="D369" t="n">
-        <v>-0.04945822630891428</v>
+        <v>-0.04108867045366082</v>
       </c>
     </row>
     <row r="370">
@@ -5607,13 +5607,13 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>66.16191343281382</v>
+        <v>98.05226732514126</v>
       </c>
       <c r="C370" t="n">
-        <v>66.20945805079839</v>
+        <v>98.13755228574645</v>
       </c>
       <c r="D370" t="n">
-        <v>-0.04754461798457044</v>
+        <v>-0.08528496060519331</v>
       </c>
     </row>
     <row r="371">
@@ -5621,13 +5621,13 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>66.16321423394379</v>
+        <v>98.08584288403281</v>
       </c>
       <c r="C371" t="n">
-        <v>66.1804689845377</v>
+        <v>98.14309546981916</v>
       </c>
       <c r="D371" t="n">
-        <v>-0.01725475059390646</v>
+        <v>-0.05725258578634396</v>
       </c>
     </row>
     <row r="372">
@@ -5635,13 +5635,13 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>66.17900061933337</v>
+        <v>98.09499856315256</v>
       </c>
       <c r="C372" t="n">
-        <v>66.1806648899058</v>
+        <v>98.17882454342578</v>
       </c>
       <c r="D372" t="n">
-        <v>-0.001664270572433679</v>
+        <v>-0.08382598027321819</v>
       </c>
     </row>
     <row r="373">
@@ -5649,13 +5649,13 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>66.18157074112519</v>
+        <v>98.09858171304246</v>
       </c>
       <c r="C373" t="n">
-        <v>66.2360112959749</v>
+        <v>98.14095668620273</v>
       </c>
       <c r="D373" t="n">
-        <v>-0.05444055484971955</v>
+        <v>-0.04237497316026406</v>
       </c>
     </row>
     <row r="374">
@@ -5663,1945 +5663,13 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>66.35632727489732</v>
+        <v>98.17603088631641</v>
       </c>
       <c r="C374" t="n">
-        <v>66.10199971832427</v>
+        <v>98.18614161373048</v>
       </c>
       <c r="D374" t="n">
-        <v>0.2543275565730596</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" s="1" t="n">
-        <v>373</v>
-      </c>
-      <c r="B375" t="n">
-        <v>66.40736208842952</v>
-      </c>
-      <c r="C375" t="n">
-        <v>66.11967682688804</v>
-      </c>
-      <c r="D375" t="n">
-        <v>0.2876852615414833</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" s="1" t="n">
-        <v>374</v>
-      </c>
-      <c r="B376" t="n">
-        <v>74.97522298060085</v>
-      </c>
-      <c r="C376" t="n">
-        <v>75.18034514059099</v>
-      </c>
-      <c r="D376" t="n">
-        <v>-0.2051221599901396</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" s="1" t="n">
-        <v>375</v>
-      </c>
-      <c r="B377" t="n">
-        <v>74.98847287444327</v>
-      </c>
-      <c r="C377" t="n">
-        <v>75.14988597650671</v>
-      </c>
-      <c r="D377" t="n">
-        <v>-0.1614131020634346</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" s="1" t="n">
-        <v>376</v>
-      </c>
-      <c r="B378" t="n">
-        <v>74.99446030378115</v>
-      </c>
-      <c r="C378" t="n">
-        <v>75.09180606775807</v>
-      </c>
-      <c r="D378" t="n">
-        <v>-0.09734576397691797</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" s="1" t="n">
-        <v>377</v>
-      </c>
-      <c r="B379" t="n">
-        <v>74.9983452705002</v>
-      </c>
-      <c r="C379" t="n">
-        <v>75.05591400949365</v>
-      </c>
-      <c r="D379" t="n">
-        <v>-0.05756873899345294</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" s="1" t="n">
-        <v>378</v>
-      </c>
-      <c r="B380" t="n">
-        <v>75.07827035198741</v>
-      </c>
-      <c r="C380" t="n">
-        <v>75.10146136893748</v>
-      </c>
-      <c r="D380" t="n">
-        <v>-0.02319101695006509</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" s="1" t="n">
-        <v>379</v>
-      </c>
-      <c r="B381" t="n">
-        <v>75.07887782027015</v>
-      </c>
-      <c r="C381" t="n">
-        <v>75.12589345122396</v>
-      </c>
-      <c r="D381" t="n">
-        <v>-0.04701563095380834</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" s="1" t="n">
-        <v>380</v>
-      </c>
-      <c r="B382" t="n">
-        <v>75.08189436815407</v>
-      </c>
-      <c r="C382" t="n">
-        <v>75.10581836236277</v>
-      </c>
-      <c r="D382" t="n">
-        <v>-0.02392399420870106</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" s="1" t="n">
-        <v>381</v>
-      </c>
-      <c r="B383" t="n">
-        <v>75.0832148384924</v>
-      </c>
-      <c r="C383" t="n">
-        <v>75.17757932953836</v>
-      </c>
-      <c r="D383" t="n">
-        <v>-0.09436449104596534</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" s="1" t="n">
-        <v>382</v>
-      </c>
-      <c r="B384" t="n">
-        <v>75.08417969585446</v>
-      </c>
-      <c r="C384" t="n">
-        <v>75.08791690488697</v>
-      </c>
-      <c r="D384" t="n">
-        <v>-0.003737209032507849</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" s="1" t="n">
-        <v>383</v>
-      </c>
-      <c r="B385" t="n">
-        <v>75.12338324154798</v>
-      </c>
-      <c r="C385" t="n">
-        <v>75.18517723545185</v>
-      </c>
-      <c r="D385" t="n">
-        <v>-0.06179399390386209</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" s="1" t="n">
-        <v>384</v>
-      </c>
-      <c r="B386" t="n">
-        <v>75.220825923985</v>
-      </c>
-      <c r="C386" t="n">
-        <v>75.25103613313257</v>
-      </c>
-      <c r="D386" t="n">
-        <v>-0.03021020914756889</v>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" s="1" t="n">
-        <v>385</v>
-      </c>
-      <c r="B387" t="n">
-        <v>75.22929206417116</v>
-      </c>
-      <c r="C387" t="n">
-        <v>75.37774612986908</v>
-      </c>
-      <c r="D387" t="n">
-        <v>-0.1484540656979192</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" s="1" t="n">
-        <v>386</v>
-      </c>
-      <c r="B388" t="n">
-        <v>75.24136273120425</v>
-      </c>
-      <c r="C388" t="n">
-        <v>75.10678579529952</v>
-      </c>
-      <c r="D388" t="n">
-        <v>0.1345769359047324</v>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" s="1" t="n">
-        <v>387</v>
-      </c>
-      <c r="B389" t="n">
-        <v>75.25973343761471</v>
-      </c>
-      <c r="C389" t="n">
-        <v>75.38820917487638</v>
-      </c>
-      <c r="D389" t="n">
-        <v>-0.1284757372616667</v>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" s="1" t="n">
-        <v>388</v>
-      </c>
-      <c r="B390" t="n">
-        <v>75.26195751799173</v>
-      </c>
-      <c r="C390" t="n">
-        <v>75.39716291592914</v>
-      </c>
-      <c r="D390" t="n">
-        <v>-0.1352053979374119</v>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" s="1" t="n">
-        <v>389</v>
-      </c>
-      <c r="B391" t="n">
-        <v>75.27387509375751</v>
-      </c>
-      <c r="C391" t="n">
-        <v>75.41011810349102</v>
-      </c>
-      <c r="D391" t="n">
-        <v>-0.136243009733505</v>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" s="1" t="n">
-        <v>390</v>
-      </c>
-      <c r="B392" t="n">
-        <v>75.28115384129191</v>
-      </c>
-      <c r="C392" t="n">
-        <v>75.37027251978304</v>
-      </c>
-      <c r="D392" t="n">
-        <v>-0.08911867849113264</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" s="1" t="n">
-        <v>391</v>
-      </c>
-      <c r="B393" t="n">
-        <v>75.31207965168056</v>
-      </c>
-      <c r="C393" t="n">
-        <v>75.39542456107523</v>
-      </c>
-      <c r="D393" t="n">
-        <v>-0.08334490939466832</v>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" s="1" t="n">
-        <v>392</v>
-      </c>
-      <c r="B394" t="n">
-        <v>75.31263728968456</v>
-      </c>
-      <c r="C394" t="n">
-        <v>75.40279255020407</v>
-      </c>
-      <c r="D394" t="n">
-        <v>-0.09015526051950928</v>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" s="1" t="n">
-        <v>393</v>
-      </c>
-      <c r="B395" t="n">
-        <v>77.11630349775696</v>
-      </c>
-      <c r="C395" t="n">
-        <v>77.30403569277443</v>
-      </c>
-      <c r="D395" t="n">
-        <v>-0.1877321950174746</v>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" s="1" t="n">
-        <v>394</v>
-      </c>
-      <c r="B396" t="n">
-        <v>77.15652100483808</v>
-      </c>
-      <c r="C396" t="n">
-        <v>77.17868369934547</v>
-      </c>
-      <c r="D396" t="n">
-        <v>-0.0221626945073865</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" s="1" t="n">
-        <v>395</v>
-      </c>
-      <c r="B397" t="n">
-        <v>77.16343185994353</v>
-      </c>
-      <c r="C397" t="n">
-        <v>77.17861604074695</v>
-      </c>
-      <c r="D397" t="n">
-        <v>-0.01518418080341633</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" s="1" t="n">
-        <v>396</v>
-      </c>
-      <c r="B398" t="n">
-        <v>77.19552617670551</v>
-      </c>
-      <c r="C398" t="n">
-        <v>77.24461452982652</v>
-      </c>
-      <c r="D398" t="n">
-        <v>-0.04908835312100734</v>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" s="1" t="n">
-        <v>397</v>
-      </c>
-      <c r="B399" t="n">
-        <v>77.19962302703337</v>
-      </c>
-      <c r="C399" t="n">
-        <v>77.20390465545636</v>
-      </c>
-      <c r="D399" t="n">
-        <v>-0.004281628422987183</v>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" s="1" t="n">
-        <v>398</v>
-      </c>
-      <c r="B400" t="n">
-        <v>77.26893214438422</v>
-      </c>
-      <c r="C400" t="n">
-        <v>77.32529517045353</v>
-      </c>
-      <c r="D400" t="n">
-        <v>-0.05636302606930599</v>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" s="1" t="n">
-        <v>399</v>
-      </c>
-      <c r="B401" t="n">
-        <v>77.27602014422609</v>
-      </c>
-      <c r="C401" t="n">
-        <v>77.30082901483314</v>
-      </c>
-      <c r="D401" t="n">
-        <v>-0.02480887060704617</v>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" s="1" t="n">
-        <v>400</v>
-      </c>
-      <c r="B402" t="n">
-        <v>81.08104167646188</v>
-      </c>
-      <c r="C402" t="n">
-        <v>81.23395730013438</v>
-      </c>
-      <c r="D402" t="n">
-        <v>-0.1529156236724987</v>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" s="1" t="n">
-        <v>401</v>
-      </c>
-      <c r="B403" t="n">
-        <v>81.08150590173909</v>
-      </c>
-      <c r="C403" t="n">
-        <v>81.12542948306296</v>
-      </c>
-      <c r="D403" t="n">
-        <v>-0.04392358132386676</v>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" s="1" t="n">
-        <v>402</v>
-      </c>
-      <c r="B404" t="n">
-        <v>81.0874169951538</v>
-      </c>
-      <c r="C404" t="n">
-        <v>81.27296784260189</v>
-      </c>
-      <c r="D404" t="n">
-        <v>-0.1855508474480843</v>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" s="1" t="n">
-        <v>403</v>
-      </c>
-      <c r="B405" t="n">
-        <v>81.0878264699919</v>
-      </c>
-      <c r="C405" t="n">
-        <v>81.18919647194909</v>
-      </c>
-      <c r="D405" t="n">
-        <v>-0.1013700019571928</v>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" s="1" t="n">
-        <v>404</v>
-      </c>
-      <c r="B406" t="n">
-        <v>81.13076151689135</v>
-      </c>
-      <c r="C406" t="n">
-        <v>81.19816887210141</v>
-      </c>
-      <c r="D406" t="n">
-        <v>-0.06740735521005092</v>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" s="1" t="n">
-        <v>405</v>
-      </c>
-      <c r="B407" t="n">
-        <v>81.13603991364459</v>
-      </c>
-      <c r="C407" t="n">
-        <v>81.14608486383023</v>
-      </c>
-      <c r="D407" t="n">
-        <v>-0.01004495018563034</v>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" s="1" t="n">
-        <v>406</v>
-      </c>
-      <c r="B408" t="n">
-        <v>81.14612281096426</v>
-      </c>
-      <c r="C408" t="n">
-        <v>81.28929147326404</v>
-      </c>
-      <c r="D408" t="n">
-        <v>-0.1431686622997859</v>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" s="1" t="n">
-        <v>407</v>
-      </c>
-      <c r="B409" t="n">
-        <v>81.14704936396875</v>
-      </c>
-      <c r="C409" t="n">
-        <v>81.15625366243479</v>
-      </c>
-      <c r="D409" t="n">
-        <v>-0.009204298466045202</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" s="1" t="n">
-        <v>408</v>
-      </c>
-      <c r="B410" t="n">
-        <v>81.15690978927994</v>
-      </c>
-      <c r="C410" t="n">
-        <v>81.28726731832641</v>
-      </c>
-      <c r="D410" t="n">
-        <v>-0.1303575290464778</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" s="1" t="n">
-        <v>409</v>
-      </c>
-      <c r="B411" t="n">
-        <v>81.18303925405677</v>
-      </c>
-      <c r="C411" t="n">
-        <v>81.29033887254116</v>
-      </c>
-      <c r="D411" t="n">
-        <v>-0.1072996184843902</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" s="1" t="n">
-        <v>410</v>
-      </c>
-      <c r="B412" t="n">
-        <v>81.18907724416165</v>
-      </c>
-      <c r="C412" t="n">
-        <v>81.23703298044981</v>
-      </c>
-      <c r="D412" t="n">
-        <v>-0.0479557362881593</v>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" s="1" t="n">
-        <v>411</v>
-      </c>
-      <c r="B413" t="n">
-        <v>81.19549386094043</v>
-      </c>
-      <c r="C413" t="n">
-        <v>81.23384559969935</v>
-      </c>
-      <c r="D413" t="n">
-        <v>-0.0383517387589194</v>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" s="1" t="n">
-        <v>412</v>
-      </c>
-      <c r="B414" t="n">
-        <v>81.21416219852969</v>
-      </c>
-      <c r="C414" t="n">
-        <v>81.30022521472478</v>
-      </c>
-      <c r="D414" t="n">
-        <v>-0.08606301619508372</v>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" s="1" t="n">
-        <v>413</v>
-      </c>
-      <c r="B415" t="n">
-        <v>81.2433683778782</v>
-      </c>
-      <c r="C415" t="n">
-        <v>81.29221560378656</v>
-      </c>
-      <c r="D415" t="n">
-        <v>-0.04884722590836077</v>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" s="1" t="n">
-        <v>414</v>
-      </c>
-      <c r="B416" t="n">
-        <v>81.34984616633892</v>
-      </c>
-      <c r="C416" t="n">
-        <v>81.16695528704224</v>
-      </c>
-      <c r="D416" t="n">
-        <v>0.1828908792966786</v>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" s="1" t="n">
-        <v>415</v>
-      </c>
-      <c r="B417" t="n">
-        <v>85.04115314049682</v>
-      </c>
-      <c r="C417" t="n">
-        <v>85.15451046563149</v>
-      </c>
-      <c r="D417" t="n">
-        <v>-0.1133573251346718</v>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" s="1" t="n">
-        <v>416</v>
-      </c>
-      <c r="B418" t="n">
-        <v>85.04879433103721</v>
-      </c>
-      <c r="C418" t="n">
-        <v>85.14689862620406</v>
-      </c>
-      <c r="D418" t="n">
-        <v>-0.09810429516684849</v>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" s="1" t="n">
-        <v>417</v>
-      </c>
-      <c r="B419" t="n">
-        <v>85.07106715524563</v>
-      </c>
-      <c r="C419" t="n">
-        <v>85.18363354511607</v>
-      </c>
-      <c r="D419" t="n">
-        <v>-0.1125663898704374</v>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" s="1" t="n">
-        <v>418</v>
-      </c>
-      <c r="B420" t="n">
-        <v>85.08219901743674</v>
-      </c>
-      <c r="C420" t="n">
-        <v>85.11725280564173</v>
-      </c>
-      <c r="D420" t="n">
-        <v>-0.03505378820499061</v>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" s="1" t="n">
-        <v>419</v>
-      </c>
-      <c r="B421" t="n">
-        <v>85.10043851233367</v>
-      </c>
-      <c r="C421" t="n">
-        <v>85.11374067563416</v>
-      </c>
-      <c r="D421" t="n">
-        <v>-0.01330216330049439</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" s="1" t="n">
-        <v>420</v>
-      </c>
-      <c r="B422" t="n">
-        <v>85.10267951256652</v>
-      </c>
-      <c r="C422" t="n">
-        <v>85.22646610345525</v>
-      </c>
-      <c r="D422" t="n">
-        <v>-0.1237865908887272</v>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" s="1" t="n">
-        <v>421</v>
-      </c>
-      <c r="B423" t="n">
-        <v>85.13497614492309</v>
-      </c>
-      <c r="C423" t="n">
-        <v>85.2210876106988</v>
-      </c>
-      <c r="D423" t="n">
-        <v>-0.0861114657757156</v>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" s="1" t="n">
-        <v>422</v>
-      </c>
-      <c r="B424" t="n">
-        <v>85.16393740788702</v>
-      </c>
-      <c r="C424" t="n">
-        <v>85.16411407685597</v>
-      </c>
-      <c r="D424" t="n">
-        <v>-0.0001766689689475243</v>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" s="1" t="n">
-        <v>423</v>
-      </c>
-      <c r="B425" t="n">
-        <v>85.16532889148934</v>
-      </c>
-      <c r="C425" t="n">
-        <v>85.25262445995358</v>
-      </c>
-      <c r="D425" t="n">
-        <v>-0.08729556846424202</v>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" s="1" t="n">
-        <v>424</v>
-      </c>
-      <c r="B426" t="n">
-        <v>85.18411017721829</v>
-      </c>
-      <c r="C426" t="n">
-        <v>85.29884812672458</v>
-      </c>
-      <c r="D426" t="n">
-        <v>-0.1147379495062921</v>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" s="1" t="n">
-        <v>425</v>
-      </c>
-      <c r="B427" t="n">
-        <v>85.18573217135454</v>
-      </c>
-      <c r="C427" t="n">
-        <v>85.2417111444733</v>
-      </c>
-      <c r="D427" t="n">
-        <v>-0.05597897311875499</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" s="1" t="n">
-        <v>426</v>
-      </c>
-      <c r="B428" t="n">
-        <v>85.18616620935911</v>
-      </c>
-      <c r="C428" t="n">
-        <v>85.21193189430666</v>
-      </c>
-      <c r="D428" t="n">
-        <v>-0.02576568494754383</v>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" s="1" t="n">
-        <v>427</v>
-      </c>
-      <c r="B429" t="n">
-        <v>85.18816562888392</v>
-      </c>
-      <c r="C429" t="n">
-        <v>85.27166427472316</v>
-      </c>
-      <c r="D429" t="n">
-        <v>-0.08349864583924216</v>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" s="1" t="n">
-        <v>428</v>
-      </c>
-      <c r="B430" t="n">
-        <v>85.18885783767244</v>
-      </c>
-      <c r="C430" t="n">
-        <v>85.24890710865364</v>
-      </c>
-      <c r="D430" t="n">
-        <v>-0.06004927098119595</v>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" s="1" t="n">
-        <v>429</v>
-      </c>
-      <c r="B431" t="n">
-        <v>85.19345339967772</v>
-      </c>
-      <c r="C431" t="n">
-        <v>85.31177192020033</v>
-      </c>
-      <c r="D431" t="n">
-        <v>-0.1183185205226067</v>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" s="1" t="n">
-        <v>430</v>
-      </c>
-      <c r="B432" t="n">
-        <v>85.22007538345139</v>
-      </c>
-      <c r="C432" t="n">
-        <v>85.25416143019376</v>
-      </c>
-      <c r="D432" t="n">
-        <v>-0.03408604674237381</v>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" s="1" t="n">
-        <v>431</v>
-      </c>
-      <c r="B433" t="n">
-        <v>85.22012714685565</v>
-      </c>
-      <c r="C433" t="n">
-        <v>85.29946761868085</v>
-      </c>
-      <c r="D433" t="n">
-        <v>-0.07934047182520487</v>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" s="1" t="n">
-        <v>432</v>
-      </c>
-      <c r="B434" t="n">
-        <v>85.41220259018702</v>
-      </c>
-      <c r="C434" t="n">
-        <v>85.20956376859331</v>
-      </c>
-      <c r="D434" t="n">
-        <v>0.2026388215937089</v>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" s="1" t="n">
-        <v>433</v>
-      </c>
-      <c r="B435" t="n">
-        <v>85.98428609251313</v>
-      </c>
-      <c r="C435" t="n">
-        <v>85.98517037765561</v>
-      </c>
-      <c r="D435" t="n">
-        <v>-0.0008842851424759601</v>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" s="1" t="n">
-        <v>434</v>
-      </c>
-      <c r="B436" t="n">
-        <v>85.99067284555974</v>
-      </c>
-      <c r="C436" t="n">
-        <v>86.08023641014182</v>
-      </c>
-      <c r="D436" t="n">
-        <v>-0.08956356458207893</v>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" s="1" t="n">
-        <v>435</v>
-      </c>
-      <c r="B437" t="n">
-        <v>86.04392449855125</v>
-      </c>
-      <c r="C437" t="n">
-        <v>86.20434634572966</v>
-      </c>
-      <c r="D437" t="n">
-        <v>-0.1604218471784122</v>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" s="1" t="n">
-        <v>436</v>
-      </c>
-      <c r="B438" t="n">
-        <v>86.06166756973877</v>
-      </c>
-      <c r="C438" t="n">
-        <v>86.20667634085103</v>
-      </c>
-      <c r="D438" t="n">
-        <v>-0.1450087711122592</v>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" s="1" t="n">
-        <v>437</v>
-      </c>
-      <c r="B439" t="n">
-        <v>86.0643092517787</v>
-      </c>
-      <c r="C439" t="n">
-        <v>86.08193175934086</v>
-      </c>
-      <c r="D439" t="n">
-        <v>-0.01762250756216588</v>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" s="1" t="n">
-        <v>438</v>
-      </c>
-      <c r="B440" t="n">
-        <v>86.06598921806926</v>
-      </c>
-      <c r="C440" t="n">
-        <v>86.12220803691464</v>
-      </c>
-      <c r="D440" t="n">
-        <v>-0.05621881884538027</v>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" s="1" t="n">
-        <v>439</v>
-      </c>
-      <c r="B441" t="n">
-        <v>86.0713303212776</v>
-      </c>
-      <c r="C441" t="n">
-        <v>86.13297153079547</v>
-      </c>
-      <c r="D441" t="n">
-        <v>-0.06164120951787311</v>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" s="1" t="n">
-        <v>440</v>
-      </c>
-      <c r="B442" t="n">
-        <v>86.11360262484415</v>
-      </c>
-      <c r="C442" t="n">
-        <v>86.07190554533733</v>
-      </c>
-      <c r="D442" t="n">
-        <v>0.04169707950681811</v>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" s="1" t="n">
-        <v>441</v>
-      </c>
-      <c r="B443" t="n">
-        <v>86.12448036986503</v>
-      </c>
-      <c r="C443" t="n">
-        <v>86.15663060876041</v>
-      </c>
-      <c r="D443" t="n">
-        <v>-0.03215023889538315</v>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" s="1" t="n">
-        <v>442</v>
-      </c>
-      <c r="B444" t="n">
-        <v>86.16678757339113</v>
-      </c>
-      <c r="C444" t="n">
-        <v>86.16815513131317</v>
-      </c>
-      <c r="D444" t="n">
-        <v>-0.001367557922037577</v>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" s="1" t="n">
-        <v>443</v>
-      </c>
-      <c r="B445" t="n">
-        <v>86.59910788873856</v>
-      </c>
-      <c r="C445" t="n">
-        <v>86.75058220584837</v>
-      </c>
-      <c r="D445" t="n">
-        <v>-0.1514743171098161</v>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" s="1" t="n">
-        <v>444</v>
-      </c>
-      <c r="B446" t="n">
-        <v>86.61000807942</v>
-      </c>
-      <c r="C446" t="n">
-        <v>86.73599028457652</v>
-      </c>
-      <c r="D446" t="n">
-        <v>-0.125982205156518</v>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" s="1" t="n">
-        <v>445</v>
-      </c>
-      <c r="B447" t="n">
-        <v>86.61066293801537</v>
-      </c>
-      <c r="C447" t="n">
-        <v>86.72660741885151</v>
-      </c>
-      <c r="D447" t="n">
-        <v>-0.1159444808361485</v>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" s="1" t="n">
-        <v>446</v>
-      </c>
-      <c r="B448" t="n">
-        <v>86.65017381465972</v>
-      </c>
-      <c r="C448" t="n">
-        <v>86.70601721274872</v>
-      </c>
-      <c r="D448" t="n">
-        <v>-0.05584339808899585</v>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" s="1" t="n">
-        <v>447</v>
-      </c>
-      <c r="B449" t="n">
-        <v>86.66802996976685</v>
-      </c>
-      <c r="C449" t="n">
-        <v>86.78265550509815</v>
-      </c>
-      <c r="D449" t="n">
-        <v>-0.1146255353312995</v>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" s="1" t="n">
-        <v>448</v>
-      </c>
-      <c r="B450" t="n">
-        <v>86.68487488548732</v>
-      </c>
-      <c r="C450" t="n">
-        <v>86.78896715355467</v>
-      </c>
-      <c r="D450" t="n">
-        <v>-0.1040922680673475</v>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" s="1" t="n">
-        <v>449</v>
-      </c>
-      <c r="B451" t="n">
-        <v>86.70667421630004</v>
-      </c>
-      <c r="C451" t="n">
-        <v>86.71533947623726</v>
-      </c>
-      <c r="D451" t="n">
-        <v>-0.008665259937217229</v>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" s="1" t="n">
-        <v>450</v>
-      </c>
-      <c r="B452" t="n">
-        <v>86.70790673733329</v>
-      </c>
-      <c r="C452" t="n">
-        <v>86.71069496960841</v>
-      </c>
-      <c r="D452" t="n">
-        <v>-0.002788232275122482</v>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" s="1" t="n">
-        <v>451</v>
-      </c>
-      <c r="B453" t="n">
-        <v>86.73161724919338</v>
-      </c>
-      <c r="C453" t="n">
-        <v>86.80555453164213</v>
-      </c>
-      <c r="D453" t="n">
-        <v>-0.07393728244875319</v>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" s="1" t="n">
-        <v>452</v>
-      </c>
-      <c r="B454" t="n">
-        <v>86.76676430962399</v>
-      </c>
-      <c r="C454" t="n">
-        <v>86.79388224209389</v>
-      </c>
-      <c r="D454" t="n">
-        <v>-0.02711793246989203</v>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" s="1" t="n">
-        <v>453</v>
-      </c>
-      <c r="B455" t="n">
-        <v>86.91935408900486</v>
-      </c>
-      <c r="C455" t="n">
-        <v>86.94622739759939</v>
-      </c>
-      <c r="D455" t="n">
-        <v>-0.02687330859453141</v>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" s="1" t="n">
-        <v>454</v>
-      </c>
-      <c r="B456" t="n">
-        <v>86.93894697994568</v>
-      </c>
-      <c r="C456" t="n">
-        <v>87.01086530681634</v>
-      </c>
-      <c r="D456" t="n">
-        <v>-0.07191832687065869</v>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" s="1" t="n">
-        <v>455</v>
-      </c>
-      <c r="B457" t="n">
-        <v>86.95087666010642</v>
-      </c>
-      <c r="C457" t="n">
-        <v>86.99977443399662</v>
-      </c>
-      <c r="D457" t="n">
-        <v>-0.04889777389020367</v>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" s="1" t="n">
-        <v>456</v>
-      </c>
-      <c r="B458" t="n">
-        <v>86.96316779937345</v>
-      </c>
-      <c r="C458" t="n">
-        <v>87.00799842229752</v>
-      </c>
-      <c r="D458" t="n">
-        <v>-0.04483062292406714</v>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" s="1" t="n">
-        <v>457</v>
-      </c>
-      <c r="B459" t="n">
-        <v>87.03491889495399</v>
-      </c>
-      <c r="C459" t="n">
-        <v>87.08896171839091</v>
-      </c>
-      <c r="D459" t="n">
-        <v>-0.05404282343691591</v>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" s="1" t="n">
-        <v>458</v>
-      </c>
-      <c r="B460" t="n">
-        <v>87.10081320332206</v>
-      </c>
-      <c r="C460" t="n">
-        <v>87.1093535313958</v>
-      </c>
-      <c r="D460" t="n">
-        <v>-0.008540328073735282</v>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" s="1" t="n">
-        <v>459</v>
-      </c>
-      <c r="B461" t="n">
-        <v>88.22640961611907</v>
-      </c>
-      <c r="C461" t="n">
-        <v>88.2560123886439</v>
-      </c>
-      <c r="D461" t="n">
-        <v>-0.02960277252482513</v>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" s="1" t="n">
-        <v>460</v>
-      </c>
-      <c r="B462" t="n">
-        <v>88.23182205274267</v>
-      </c>
-      <c r="C462" t="n">
-        <v>88.40964918114418</v>
-      </c>
-      <c r="D462" t="n">
-        <v>-0.1778271284015034</v>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" s="1" t="n">
-        <v>461</v>
-      </c>
-      <c r="B463" t="n">
-        <v>88.25525933721222</v>
-      </c>
-      <c r="C463" t="n">
-        <v>88.28977677971821</v>
-      </c>
-      <c r="D463" t="n">
-        <v>-0.03451744250598665</v>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" s="1" t="n">
-        <v>462</v>
-      </c>
-      <c r="B464" t="n">
-        <v>88.26554741019966</v>
-      </c>
-      <c r="C464" t="n">
-        <v>88.28363942860311</v>
-      </c>
-      <c r="D464" t="n">
-        <v>-0.01809201840345054</v>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" s="1" t="n">
-        <v>463</v>
-      </c>
-      <c r="B465" t="n">
-        <v>88.28611135883348</v>
-      </c>
-      <c r="C465" t="n">
-        <v>88.31835773078552</v>
-      </c>
-      <c r="D465" t="n">
-        <v>-0.03224637195204139</v>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" s="1" t="n">
-        <v>464</v>
-      </c>
-      <c r="B466" t="n">
-        <v>88.32505089010633</v>
-      </c>
-      <c r="C466" t="n">
-        <v>88.39924274843433</v>
-      </c>
-      <c r="D466" t="n">
-        <v>-0.07419185832800679</v>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" s="1" t="n">
-        <v>465</v>
-      </c>
-      <c r="B467" t="n">
-        <v>88.37957746371977</v>
-      </c>
-      <c r="C467" t="n">
-        <v>88.41688359233547</v>
-      </c>
-      <c r="D467" t="n">
-        <v>-0.03730612861569682</v>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" s="1" t="n">
-        <v>466</v>
-      </c>
-      <c r="B468" t="n">
-        <v>89.00536847643421</v>
-      </c>
-      <c r="C468" t="n">
-        <v>89.11891068328738</v>
-      </c>
-      <c r="D468" t="n">
-        <v>-0.1135422068531682</v>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" s="1" t="n">
-        <v>467</v>
-      </c>
-      <c r="B469" t="n">
-        <v>89.00953225961256</v>
-      </c>
-      <c r="C469" t="n">
-        <v>89.03320598803955</v>
-      </c>
-      <c r="D469" t="n">
-        <v>-0.02367372842699922</v>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" s="1" t="n">
-        <v>468</v>
-      </c>
-      <c r="B470" t="n">
-        <v>89.01460278386577</v>
-      </c>
-      <c r="C470" t="n">
-        <v>89.01574556361568</v>
-      </c>
-      <c r="D470" t="n">
-        <v>-0.001142779749912393</v>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" s="1" t="n">
-        <v>469</v>
-      </c>
-      <c r="B471" t="n">
-        <v>89.02813018084541</v>
-      </c>
-      <c r="C471" t="n">
-        <v>89.1028272968927</v>
-      </c>
-      <c r="D471" t="n">
-        <v>-0.07469711604728957</v>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" s="1" t="n">
-        <v>470</v>
-      </c>
-      <c r="B472" t="n">
-        <v>89.05546047968977</v>
-      </c>
-      <c r="C472" t="n">
-        <v>89.19272344662782</v>
-      </c>
-      <c r="D472" t="n">
-        <v>-0.137262966938053</v>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" s="1" t="n">
-        <v>471</v>
-      </c>
-      <c r="B473" t="n">
-        <v>89.1085117886425</v>
-      </c>
-      <c r="C473" t="n">
-        <v>89.1127785527397</v>
-      </c>
-      <c r="D473" t="n">
-        <v>-0.004266764097195619</v>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" s="1" t="n">
-        <v>472</v>
-      </c>
-      <c r="B474" t="n">
-        <v>89.12219013059976</v>
-      </c>
-      <c r="C474" t="n">
-        <v>89.16716217273773</v>
-      </c>
-      <c r="D474" t="n">
-        <v>-0.0449720421379709</v>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" s="1" t="n">
-        <v>473</v>
-      </c>
-      <c r="B475" t="n">
-        <v>89.13432683527257</v>
-      </c>
-      <c r="C475" t="n">
-        <v>89.138733105835</v>
-      </c>
-      <c r="D475" t="n">
-        <v>-0.004406270562427039</v>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" s="1" t="n">
-        <v>474</v>
-      </c>
-      <c r="B476" t="n">
-        <v>89.13438115267147</v>
-      </c>
-      <c r="C476" t="n">
-        <v>89.14660622659096</v>
-      </c>
-      <c r="D476" t="n">
-        <v>-0.01222507391949534</v>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" s="1" t="n">
-        <v>475</v>
-      </c>
-      <c r="B477" t="n">
-        <v>89.16872495688756</v>
-      </c>
-      <c r="C477" t="n">
-        <v>89.17769149018993</v>
-      </c>
-      <c r="D477" t="n">
-        <v>-0.008966533302370294</v>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" s="1" t="n">
-        <v>476</v>
-      </c>
-      <c r="B478" t="n">
-        <v>89.31437998330402</v>
-      </c>
-      <c r="C478" t="n">
-        <v>89.3693533595636</v>
-      </c>
-      <c r="D478" t="n">
-        <v>-0.0549733762595821</v>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" s="1" t="n">
-        <v>477</v>
-      </c>
-      <c r="B479" t="n">
-        <v>89.32670486067208</v>
-      </c>
-      <c r="C479" t="n">
-        <v>89.42374252034388</v>
-      </c>
-      <c r="D479" t="n">
-        <v>-0.09703765967179834</v>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" s="1" t="n">
-        <v>478</v>
-      </c>
-      <c r="B480" t="n">
-        <v>89.33922355550972</v>
-      </c>
-      <c r="C480" t="n">
-        <v>89.51717536140225</v>
-      </c>
-      <c r="D480" t="n">
-        <v>-0.1779518058925333</v>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" s="1" t="n">
-        <v>479</v>
-      </c>
-      <c r="B481" t="n">
-        <v>89.33960409266437</v>
-      </c>
-      <c r="C481" t="n">
-        <v>89.34843013189051</v>
-      </c>
-      <c r="D481" t="n">
-        <v>-0.008826039226136118</v>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" s="1" t="n">
-        <v>480</v>
-      </c>
-      <c r="B482" t="n">
-        <v>89.376168690629</v>
-      </c>
-      <c r="C482" t="n">
-        <v>89.46802323657091</v>
-      </c>
-      <c r="D482" t="n">
-        <v>-0.09185454594191356</v>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" s="1" t="n">
-        <v>481</v>
-      </c>
-      <c r="B483" t="n">
-        <v>89.40133061646362</v>
-      </c>
-      <c r="C483" t="n">
-        <v>89.4391268406554</v>
-      </c>
-      <c r="D483" t="n">
-        <v>-0.03779622419177997</v>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" s="1" t="n">
-        <v>482</v>
-      </c>
-      <c r="B484" t="n">
-        <v>89.72270839637163</v>
-      </c>
-      <c r="C484" t="n">
-        <v>89.85665067805364</v>
-      </c>
-      <c r="D484" t="n">
-        <v>-0.1339422816820104</v>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" s="1" t="n">
-        <v>483</v>
-      </c>
-      <c r="B485" t="n">
-        <v>89.72568157829932</v>
-      </c>
-      <c r="C485" t="n">
-        <v>89.77706461798306</v>
-      </c>
-      <c r="D485" t="n">
-        <v>-0.05138303968374203</v>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" s="1" t="n">
-        <v>484</v>
-      </c>
-      <c r="B486" t="n">
-        <v>89.74268217119513</v>
-      </c>
-      <c r="C486" t="n">
-        <v>89.89509284312115</v>
-      </c>
-      <c r="D486" t="n">
-        <v>-0.1524106719260203</v>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" s="1" t="n">
-        <v>485</v>
-      </c>
-      <c r="B487" t="n">
-        <v>89.74282864816023</v>
-      </c>
-      <c r="C487" t="n">
-        <v>89.76427640059386</v>
-      </c>
-      <c r="D487" t="n">
-        <v>-0.02144775243363028</v>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" s="1" t="n">
-        <v>486</v>
-      </c>
-      <c r="B488" t="n">
-        <v>89.76071522340625</v>
-      </c>
-      <c r="C488" t="n">
-        <v>89.8200972317855</v>
-      </c>
-      <c r="D488" t="n">
-        <v>-0.05938200837924512</v>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" s="1" t="n">
-        <v>487</v>
-      </c>
-      <c r="B489" t="n">
-        <v>89.77667193022384</v>
-      </c>
-      <c r="C489" t="n">
-        <v>89.90297242469488</v>
-      </c>
-      <c r="D489" t="n">
-        <v>-0.1263004944710389</v>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" s="1" t="n">
-        <v>488</v>
-      </c>
-      <c r="B490" t="n">
-        <v>89.77698583981906</v>
-      </c>
-      <c r="C490" t="n">
-        <v>89.90941601399443</v>
-      </c>
-      <c r="D490" t="n">
-        <v>-0.1324301741753686</v>
-      </c>
-    </row>
-    <row r="491">
-      <c r="A491" s="1" t="n">
-        <v>489</v>
-      </c>
-      <c r="B491" t="n">
-        <v>89.79010904839235</v>
-      </c>
-      <c r="C491" t="n">
-        <v>89.89086551042793</v>
-      </c>
-      <c r="D491" t="n">
-        <v>-0.1007564620355765</v>
-      </c>
-    </row>
-    <row r="492">
-      <c r="A492" s="1" t="n">
-        <v>490</v>
-      </c>
-      <c r="B492" t="n">
-        <v>89.7934175792147</v>
-      </c>
-      <c r="C492" t="n">
-        <v>89.82373932245946</v>
-      </c>
-      <c r="D492" t="n">
-        <v>-0.03032174324475534</v>
-      </c>
-    </row>
-    <row r="493">
-      <c r="A493" s="1" t="n">
-        <v>491</v>
-      </c>
-      <c r="B493" t="n">
-        <v>89.79863909892381</v>
-      </c>
-      <c r="C493" t="n">
-        <v>89.85365229225104</v>
-      </c>
-      <c r="D493" t="n">
-        <v>-0.05501319332722687</v>
-      </c>
-    </row>
-    <row r="494">
-      <c r="A494" s="1" t="n">
-        <v>492</v>
-      </c>
-      <c r="B494" t="n">
-        <v>89.81275776436921</v>
-      </c>
-      <c r="C494" t="n">
-        <v>89.84474213132488</v>
-      </c>
-      <c r="D494" t="n">
-        <v>-0.03198436695566897</v>
-      </c>
-    </row>
-    <row r="495">
-      <c r="A495" s="1" t="n">
-        <v>493</v>
-      </c>
-      <c r="B495" t="n">
-        <v>89.81416021958181</v>
-      </c>
-      <c r="C495" t="n">
-        <v>89.82344757446323</v>
-      </c>
-      <c r="D495" t="n">
-        <v>-0.009287354881422516</v>
-      </c>
-    </row>
-    <row r="496">
-      <c r="A496" s="1" t="n">
-        <v>494</v>
-      </c>
-      <c r="B496" t="n">
-        <v>89.84770838164577</v>
-      </c>
-      <c r="C496" t="n">
-        <v>89.8556553364909</v>
-      </c>
-      <c r="D496" t="n">
-        <v>-0.00794695484512431</v>
-      </c>
-    </row>
-    <row r="497">
-      <c r="A497" s="1" t="n">
-        <v>495</v>
-      </c>
-      <c r="B497" t="n">
-        <v>89.86827925956329</v>
-      </c>
-      <c r="C497" t="n">
-        <v>89.91237850948337</v>
-      </c>
-      <c r="D497" t="n">
-        <v>-0.0440992499200803</v>
-      </c>
-    </row>
-    <row r="498">
-      <c r="A498" s="1" t="n">
-        <v>496</v>
-      </c>
-      <c r="B498" t="n">
-        <v>97.59390445755963</v>
-      </c>
-      <c r="C498" t="n">
-        <v>97.69398826187567</v>
-      </c>
-      <c r="D498" t="n">
-        <v>-0.1000838043160428</v>
-      </c>
-    </row>
-    <row r="499">
-      <c r="A499" s="1" t="n">
-        <v>497</v>
-      </c>
-      <c r="B499" t="n">
-        <v>97.60109730063627</v>
-      </c>
-      <c r="C499" t="n">
-        <v>97.64328169194337</v>
-      </c>
-      <c r="D499" t="n">
-        <v>-0.04218439130710294</v>
-      </c>
-    </row>
-    <row r="500">
-      <c r="A500" s="1" t="n">
-        <v>498</v>
-      </c>
-      <c r="B500" t="n">
-        <v>97.67178709760447</v>
-      </c>
-      <c r="C500" t="n">
-        <v>97.74729630859063</v>
-      </c>
-      <c r="D500" t="n">
-        <v>-0.07550921098616925</v>
-      </c>
-    </row>
-    <row r="501">
-      <c r="A501" s="1" t="n">
-        <v>499</v>
-      </c>
-      <c r="B501" t="n">
-        <v>97.68070390784449</v>
-      </c>
-      <c r="C501" t="n">
-        <v>97.74956054711114</v>
-      </c>
-      <c r="D501" t="n">
-        <v>-0.06885663926665586</v>
-      </c>
-    </row>
-    <row r="502">
-      <c r="A502" s="1" t="n">
-        <v>500</v>
-      </c>
-      <c r="B502" t="n">
-        <v>97.68332321508032</v>
-      </c>
-      <c r="C502" t="n">
-        <v>97.729518044934</v>
-      </c>
-      <c r="D502" t="n">
-        <v>-0.0461948298536754</v>
-      </c>
-    </row>
-    <row r="503">
-      <c r="A503" s="1" t="n">
-        <v>501</v>
-      </c>
-      <c r="B503" t="n">
-        <v>99.5959373995306</v>
-      </c>
-      <c r="C503" t="n">
-        <v>99.68542454894836</v>
-      </c>
-      <c r="D503" t="n">
-        <v>-0.08948714941776359</v>
-      </c>
-    </row>
-    <row r="504">
-      <c r="A504" s="1" t="n">
-        <v>502</v>
-      </c>
-      <c r="B504" t="n">
-        <v>99.6013059671905</v>
-      </c>
-      <c r="C504" t="n">
-        <v>99.67293662854641</v>
-      </c>
-      <c r="D504" t="n">
-        <v>-0.07163066135591123</v>
-      </c>
-    </row>
-    <row r="505">
-      <c r="A505" s="1" t="n">
-        <v>503</v>
-      </c>
-      <c r="B505" t="n">
-        <v>99.6116567167843</v>
-      </c>
-      <c r="C505" t="n">
-        <v>99.7527138629922</v>
-      </c>
-      <c r="D505" t="n">
-        <v>-0.1410571462078991</v>
-      </c>
-    </row>
-    <row r="506">
-      <c r="A506" s="1" t="n">
-        <v>504</v>
-      </c>
-      <c r="B506" t="n">
-        <v>99.61939686734965</v>
-      </c>
-      <c r="C506" t="n">
-        <v>99.8021417118979</v>
-      </c>
-      <c r="D506" t="n">
-        <v>-0.1827448445482531</v>
-      </c>
-    </row>
-    <row r="507">
-      <c r="A507" s="1" t="n">
-        <v>505</v>
-      </c>
-      <c r="B507" t="n">
-        <v>99.64941498883606</v>
-      </c>
-      <c r="C507" t="n">
-        <v>99.68332505013014</v>
-      </c>
-      <c r="D507" t="n">
-        <v>-0.0339100612940797</v>
-      </c>
-    </row>
-    <row r="508">
-      <c r="A508" s="1" t="n">
-        <v>506</v>
-      </c>
-      <c r="B508" t="n">
-        <v>99.6514962293997</v>
-      </c>
-      <c r="C508" t="n">
-        <v>99.77198959330444</v>
-      </c>
-      <c r="D508" t="n">
-        <v>-0.1204933639047425</v>
-      </c>
-    </row>
-    <row r="509">
-      <c r="A509" s="1" t="n">
-        <v>507</v>
-      </c>
-      <c r="B509" t="n">
-        <v>99.66724392893521</v>
-      </c>
-      <c r="C509" t="n">
-        <v>99.76049684339101</v>
-      </c>
-      <c r="D509" t="n">
-        <v>-0.09325291445580319</v>
-      </c>
-    </row>
-    <row r="510">
-      <c r="A510" s="1" t="n">
-        <v>508</v>
-      </c>
-      <c r="B510" t="n">
-        <v>99.67142769258164</v>
-      </c>
-      <c r="C510" t="n">
-        <v>99.76394807616515</v>
-      </c>
-      <c r="D510" t="n">
-        <v>-0.09252038358350489</v>
-      </c>
-    </row>
-    <row r="511">
-      <c r="A511" s="1" t="n">
-        <v>509</v>
-      </c>
-      <c r="B511" t="n">
-        <v>99.69413139639124</v>
-      </c>
-      <c r="C511" t="n">
-        <v>99.64655773190979</v>
-      </c>
-      <c r="D511" t="n">
-        <v>0.04757366448144751</v>
-      </c>
-    </row>
-    <row r="512">
-      <c r="A512" s="1" t="n">
-        <v>510</v>
-      </c>
-      <c r="B512" t="n">
-        <v>99.74618354185218</v>
-      </c>
-      <c r="C512" t="n">
-        <v>99.75364420728206</v>
-      </c>
-      <c r="D512" t="n">
-        <v>-0.007460665429888991</v>
+        <v>-0.01011072741407304</v>
       </c>
     </row>
   </sheetData>
